--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -338,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -708,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB42"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
@@ -2147,15 +2148,15 @@
       <c r="B34" s="18" t="n"/>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Tenant X PROD (RMF 0-3)</t>
+          <t>HSM DEV Account Setup</t>
         </is>
       </c>
       <c r="D34" s="18" t="n"/>
-      <c r="E34" s="59" t="inlineStr"/>
-      <c r="F34" s="60" t="inlineStr"/>
+      <c r="E34" s="18" t="n"/>
+      <c r="F34" s="28" t="n"/>
       <c r="G34" s="59" t="inlineStr"/>
-      <c r="H34" s="18" t="n"/>
-      <c r="I34" s="18" t="n"/>
+      <c r="H34" s="59" t="inlineStr"/>
+      <c r="I34" s="59" t="inlineStr"/>
       <c r="J34" s="18" t="n"/>
       <c r="K34" s="18" t="n"/>
       <c r="L34" s="18" t="n"/>
@@ -2177,92 +2178,92 @@
       <c r="AB34" s="18" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="n"/>
-      <c r="B35" s="13" t="n"/>
-      <c r="C35" s="14" t="inlineStr">
-        <is>
-          <t>HSM DEV Account Setup</t>
-        </is>
-      </c>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="13" t="n"/>
-      <c r="F35" s="15" t="n"/>
-      <c r="G35" s="61" t="inlineStr"/>
-      <c r="H35" s="61" t="inlineStr"/>
-      <c r="I35" s="61" t="inlineStr"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
-      <c r="L35" s="13" t="n"/>
-      <c r="M35" s="13" t="n"/>
-      <c r="N35" s="13" t="n"/>
-      <c r="O35" s="13" t="n"/>
-      <c r="P35" s="13" t="n"/>
-      <c r="Q35" s="13" t="n"/>
-      <c r="R35" s="13" t="n"/>
-      <c r="S35" s="13" t="n"/>
-      <c r="T35" s="13" t="n"/>
-      <c r="U35" s="13" t="n"/>
-      <c r="V35" s="13" t="n"/>
-      <c r="W35" s="13" t="n"/>
-      <c r="X35" s="13" t="n"/>
-      <c r="Y35" s="13" t="n"/>
-      <c r="Z35" s="13" t="n"/>
-      <c r="AA35" s="13" t="n"/>
-      <c r="AB35" s="13" t="n"/>
+      <c r="A35" s="18" t="n"/>
+      <c r="B35" s="18" t="n"/>
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>HSM DEV Account Integration</t>
+        </is>
+      </c>
+      <c r="D35" s="18" t="n"/>
+      <c r="E35" s="18" t="n"/>
+      <c r="F35" s="28" t="n"/>
+      <c r="G35" s="18" t="n"/>
+      <c r="H35" s="18" t="n"/>
+      <c r="I35" s="59" t="inlineStr"/>
+      <c r="J35" s="59" t="inlineStr"/>
+      <c r="K35" s="59" t="inlineStr"/>
+      <c r="L35" s="59" t="inlineStr"/>
+      <c r="M35" s="59" t="inlineStr"/>
+      <c r="N35" s="18" t="n"/>
+      <c r="O35" s="18" t="n"/>
+      <c r="P35" s="18" t="n"/>
+      <c r="Q35" s="18" t="n"/>
+      <c r="R35" s="18" t="n"/>
+      <c r="S35" s="18" t="n"/>
+      <c r="T35" s="18" t="n"/>
+      <c r="U35" s="18" t="n"/>
+      <c r="V35" s="18" t="n"/>
+      <c r="W35" s="18" t="n"/>
+      <c r="X35" s="18" t="n"/>
+      <c r="Y35" s="18" t="n"/>
+      <c r="Z35" s="18" t="n"/>
+      <c r="AA35" s="18" t="n"/>
+      <c r="AB35" s="18" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="18" t="n"/>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>Tenant X PROD</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>Tenant X PROD Account Setup</t>
-        </is>
-      </c>
-      <c r="D36" s="18" t="n"/>
-      <c r="E36" s="18" t="n"/>
-      <c r="F36" s="28" t="n"/>
-      <c r="G36" s="62" t="inlineStr"/>
-      <c r="H36" s="62" t="inlineStr"/>
-      <c r="I36" s="62" t="inlineStr"/>
-      <c r="J36" s="18" t="n"/>
-      <c r="K36" s="18" t="n"/>
-      <c r="L36" s="18" t="n"/>
-      <c r="M36" s="18" t="n"/>
-      <c r="N36" s="18" t="n"/>
-      <c r="O36" s="18" t="n"/>
-      <c r="P36" s="18" t="n"/>
-      <c r="Q36" s="18" t="n"/>
-      <c r="R36" s="18" t="n"/>
-      <c r="S36" s="18" t="n"/>
-      <c r="T36" s="18" t="n"/>
-      <c r="U36" s="18" t="n"/>
-      <c r="V36" s="18" t="n"/>
-      <c r="W36" s="18" t="n"/>
-      <c r="X36" s="18" t="n"/>
-      <c r="Y36" s="18" t="n"/>
-      <c r="Z36" s="18" t="n"/>
-      <c r="AA36" s="18" t="n"/>
-      <c r="AB36" s="18" t="n"/>
+      <c r="A36" s="13" t="n"/>
+      <c r="B36" s="13" t="n"/>
+      <c r="C36" s="14" t="inlineStr">
+        <is>
+          <t>HSM Multi-Tenant Resource Cleanup</t>
+        </is>
+      </c>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="13" t="n"/>
+      <c r="F36" s="15" t="n"/>
+      <c r="G36" s="13" t="n"/>
+      <c r="H36" s="13" t="n"/>
+      <c r="I36" s="13" t="n"/>
+      <c r="J36" s="13" t="n"/>
+      <c r="K36" s="13" t="n"/>
+      <c r="L36" s="61" t="inlineStr"/>
+      <c r="M36" s="61" t="inlineStr"/>
+      <c r="N36" s="13" t="n"/>
+      <c r="O36" s="13" t="n"/>
+      <c r="P36" s="13" t="n"/>
+      <c r="Q36" s="13" t="n"/>
+      <c r="R36" s="13" t="n"/>
+      <c r="S36" s="13" t="n"/>
+      <c r="T36" s="13" t="n"/>
+      <c r="U36" s="13" t="n"/>
+      <c r="V36" s="13" t="n"/>
+      <c r="W36" s="13" t="n"/>
+      <c r="X36" s="13" t="n"/>
+      <c r="Y36" s="13" t="n"/>
+      <c r="Z36" s="13" t="n"/>
+      <c r="AA36" s="13" t="n"/>
+      <c r="AB36" s="13" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="18" t="n"/>
-      <c r="B37" s="18" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>Tenant X PROD</t>
+        </is>
+      </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>Tenant X PROD Account Integration</t>
+          <t>Tenant X PROD (RMF 0-3)</t>
         </is>
       </c>
       <c r="D37" s="18" t="n"/>
-      <c r="E37" s="18" t="n"/>
-      <c r="F37" s="28" t="n"/>
-      <c r="G37" s="18" t="n"/>
+      <c r="E37" s="62" t="inlineStr"/>
+      <c r="F37" s="63" t="inlineStr"/>
+      <c r="G37" s="62" t="inlineStr"/>
       <c r="H37" s="18" t="n"/>
-      <c r="I37" s="62" t="inlineStr"/>
-      <c r="J37" s="62" t="inlineStr"/>
+      <c r="I37" s="18" t="n"/>
+      <c r="J37" s="18" t="n"/>
       <c r="K37" s="18" t="n"/>
       <c r="L37" s="18" t="n"/>
       <c r="M37" s="18" t="n"/>
@@ -2283,63 +2284,131 @@
       <c r="AB37" s="18" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="41" t="n"/>
-      <c r="B38" s="41" t="n"/>
-      <c r="C38" s="42" t="inlineStr">
+      <c r="A38" s="18" t="n"/>
+      <c r="B38" s="18" t="n"/>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Tenant X PROD Account Setup</t>
+        </is>
+      </c>
+      <c r="D38" s="18" t="n"/>
+      <c r="E38" s="18" t="n"/>
+      <c r="F38" s="28" t="n"/>
+      <c r="G38" s="62" t="inlineStr"/>
+      <c r="H38" s="62" t="inlineStr"/>
+      <c r="I38" s="62" t="inlineStr"/>
+      <c r="J38" s="18" t="n"/>
+      <c r="K38" s="18" t="n"/>
+      <c r="L38" s="18" t="n"/>
+      <c r="M38" s="18" t="n"/>
+      <c r="N38" s="18" t="n"/>
+      <c r="O38" s="18" t="n"/>
+      <c r="P38" s="18" t="n"/>
+      <c r="Q38" s="18" t="n"/>
+      <c r="R38" s="18" t="n"/>
+      <c r="S38" s="18" t="n"/>
+      <c r="T38" s="18" t="n"/>
+      <c r="U38" s="18" t="n"/>
+      <c r="V38" s="18" t="n"/>
+      <c r="W38" s="18" t="n"/>
+      <c r="X38" s="18" t="n"/>
+      <c r="Y38" s="18" t="n"/>
+      <c r="Z38" s="18" t="n"/>
+      <c r="AA38" s="18" t="n"/>
+      <c r="AB38" s="18" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="18" t="n"/>
+      <c r="B39" s="18" t="n"/>
+      <c r="C39" s="9" t="inlineStr">
+        <is>
+          <t>Tenant X PROD Account Integration</t>
+        </is>
+      </c>
+      <c r="D39" s="18" t="n"/>
+      <c r="E39" s="18" t="n"/>
+      <c r="F39" s="28" t="n"/>
+      <c r="G39" s="18" t="n"/>
+      <c r="H39" s="18" t="n"/>
+      <c r="I39" s="62" t="inlineStr"/>
+      <c r="J39" s="62" t="inlineStr"/>
+      <c r="K39" s="62" t="inlineStr"/>
+      <c r="L39" s="18" t="n"/>
+      <c r="M39" s="18" t="n"/>
+      <c r="N39" s="18" t="n"/>
+      <c r="O39" s="18" t="n"/>
+      <c r="P39" s="18" t="n"/>
+      <c r="Q39" s="18" t="n"/>
+      <c r="R39" s="18" t="n"/>
+      <c r="S39" s="18" t="n"/>
+      <c r="T39" s="18" t="n"/>
+      <c r="U39" s="18" t="n"/>
+      <c r="V39" s="18" t="n"/>
+      <c r="W39" s="18" t="n"/>
+      <c r="X39" s="18" t="n"/>
+      <c r="Y39" s="18" t="n"/>
+      <c r="Z39" s="18" t="n"/>
+      <c r="AA39" s="18" t="n"/>
+      <c r="AB39" s="18" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="41" t="n"/>
+      <c r="B40" s="41" t="n"/>
+      <c r="C40" s="42" t="inlineStr">
         <is>
           <t>Tenant X PROD ATO</t>
         </is>
       </c>
-      <c r="D38" s="41" t="n"/>
-      <c r="E38" s="41" t="n"/>
-      <c r="F38" s="43" t="n"/>
-      <c r="G38" s="41" t="n"/>
-      <c r="H38" s="41" t="n"/>
-      <c r="I38" s="63" t="inlineStr"/>
-      <c r="J38" s="63" t="inlineStr"/>
-      <c r="K38" s="63" t="inlineStr"/>
-      <c r="L38" s="41" t="n"/>
-      <c r="M38" s="41" t="n"/>
-      <c r="N38" s="41" t="n"/>
-      <c r="O38" s="41" t="n"/>
-      <c r="P38" s="41" t="n"/>
-      <c r="Q38" s="41" t="n"/>
-      <c r="R38" s="41" t="n"/>
-      <c r="S38" s="41" t="n"/>
-      <c r="T38" s="41" t="n"/>
-      <c r="U38" s="41" t="n"/>
-      <c r="V38" s="41" t="n"/>
-      <c r="W38" s="41" t="n"/>
-      <c r="X38" s="41" t="n"/>
-      <c r="Y38" s="41" t="n"/>
-      <c r="Z38" s="41" t="n"/>
-      <c r="AA38" s="41" t="n"/>
-      <c r="AB38" s="41" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="D40" s="41" t="n"/>
+      <c r="E40" s="41" t="n"/>
+      <c r="F40" s="43" t="n"/>
+      <c r="G40" s="41" t="n"/>
+      <c r="H40" s="41" t="n"/>
+      <c r="I40" s="64" t="inlineStr"/>
+      <c r="J40" s="64" t="inlineStr"/>
+      <c r="K40" s="64" t="inlineStr"/>
+      <c r="L40" s="41" t="n"/>
+      <c r="M40" s="41" t="n"/>
+      <c r="N40" s="41" t="n"/>
+      <c r="O40" s="41" t="n"/>
+      <c r="P40" s="41" t="n"/>
+      <c r="Q40" s="41" t="n"/>
+      <c r="R40" s="41" t="n"/>
+      <c r="S40" s="41" t="n"/>
+      <c r="T40" s="41" t="n"/>
+      <c r="U40" s="41" t="n"/>
+      <c r="V40" s="41" t="n"/>
+      <c r="W40" s="41" t="n"/>
+      <c r="X40" s="41" t="n"/>
+      <c r="Y40" s="41" t="n"/>
+      <c r="Z40" s="41" t="n"/>
+      <c r="AA40" s="41" t="n"/>
+      <c r="AB40" s="41" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>Legend:</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="64" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="65" t="inlineStr">
         <is>
           <t>Baseline (primary offering)</t>
         </is>
       </c>
-      <c r="B42" s="65" t="inlineStr">
+      <c r="B44" s="66" t="inlineStr">
         <is>
           <t>Green left accent</t>
         </is>
       </c>
-      <c r="C42" s="66" t="inlineStr">
+      <c r="C44" s="67" t="inlineStr">
         <is>
           <t>Optional</t>
         </is>
       </c>
-      <c r="D42" s="65" t="inlineStr">
+      <c r="D44" s="66" t="inlineStr">
         <is>
           <t>Orange dashed left accent</t>
         </is>
@@ -2348,18 +2417,18 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A4:A24"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B37:B40"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A33:A40"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2371,7 +2440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2389,37 +2458,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="inlineStr">
+      <c r="A1" s="68" t="inlineStr">
         <is>
           <t>domain</t>
         </is>
       </c>
-      <c r="B1" s="67" t="inlineStr">
+      <c r="B1" s="68" t="inlineStr">
         <is>
           <t>feature</t>
         </is>
       </c>
-      <c r="C1" s="67" t="inlineStr">
+      <c r="C1" s="68" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="D1" s="67" t="inlineStr">
+      <c r="D1" s="68" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="E1" s="67" t="inlineStr">
+      <c r="E1" s="68" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="F1" s="67" t="inlineStr">
+      <c r="F1" s="68" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="G1" s="67" t="inlineStr">
+      <c r="G1" s="68" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
@@ -3524,17 +3593,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tenant X PROD (RMF 0-3)</t>
+          <t>HSM DEV Account Setup</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jan 2026</t>
+          <t>Mar 2026</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3557,17 +3626,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HSM DEV Account Setup</t>
+          <t>HSM DEV Account Integration</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Sep 2026</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3585,22 +3654,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tenant X PROD</t>
+          <t>HSM DEV</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tenant X PROD Account Setup</t>
+          <t>HSM Multi-Tenant Resource Cleanup</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
+          <t>Aug 2026</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Sep 2026</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3623,17 +3692,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tenant X PROD Account Integration</t>
+          <t>Tenant X PROD (RMF 0-3)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Jan 2026</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jun 2026</t>
+          <t>Mar 2026</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3656,23 +3725,89 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tenant X PROD ATO</t>
+          <t>Tenant X PROD Account Setup</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Mar 2026</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>May 2026</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Jul 2026</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v/>
       </c>
       <c r="G36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Onboarding Tenant Apps</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Tenant X PROD</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tenant X PROD Account Integration</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>May 2026</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Jul 2026</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v/>
+      </c>
+      <c r="G37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Onboarding Tenant Apps</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tenant X PROD</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tenant X PROD ATO</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>May 2026</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Jul 2026</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v/>
+      </c>
+      <c r="G38" t="n">
         <v/>
       </c>
     </row>
@@ -3701,17 +3836,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="inlineStr">
+      <c r="A1" s="68" t="inlineStr">
         <is>
           <t>release</t>
         </is>
       </c>
-      <c r="B1" s="67" t="inlineStr">
+      <c r="B1" s="68" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="C1" s="67" t="inlineStr">
+      <c r="C1" s="68" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -45,7 +45,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -66,36 +66,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00408bbf"/>
-        <bgColor rgb="00408bbf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005d9dc9"/>
-        <bgColor rgb="005d9dc9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0074aad0"/>
-        <bgColor rgb="0074aad0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008ab8d8"/>
-        <bgColor rgb="008ab8d8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009cc3de"/>
-        <bgColor rgb="009cc3de"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00ff7f0e"/>
         <bgColor rgb="00ff7f0e"/>
       </patternFill>
@@ -108,14 +78,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffa251"/>
-        <bgColor rgb="00ffa251"/>
+        <fgColor rgb="002ca02c"/>
+        <bgColor rgb="002ca02c"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002ca02c"/>
-        <bgColor rgb="002ca02c"/>
+        <fgColor rgb="004bae4b"/>
+        <bgColor rgb="004bae4b"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0067ba67"/>
+        <bgColor rgb="0067ba67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007cc47c"/>
+        <bgColor rgb="007cc47c"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0091cd91"/>
+        <bgColor rgb="0091cd91"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a2d5a2"/>
+        <bgColor rgb="00a2d5a2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b3dcb3"/>
+        <bgColor rgb="00b3dcb3"/>
       </patternFill>
     </fill>
     <fill>
@@ -126,8 +126,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00dc4748"/>
+        <bgColor rgb="00dc4748"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e16364"/>
+        <bgColor rgb="00e16364"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="009467bd"/>
         <bgColor rgb="009467bd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00a47dc6"/>
+        <bgColor rgb="00a47dc6"/>
       </patternFill>
     </fill>
     <fill>
@@ -150,8 +168,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00929292"/>
-        <bgColor rgb="00929292"/>
+        <fgColor rgb="00bcbd22"/>
+        <bgColor rgb="00bcbd22"/>
       </patternFill>
     </fill>
     <fill>
@@ -169,34 +187,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
     <border/>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="00EF6C00"/>
+      </left>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="00EF6C00"/>
+      </left>
+      <bottom style="thin"/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="002E7D32"/>
       </left>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="002E7D32"/>
       </left>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color rgb="00EF6C00"/>
-      </left>
-    </border>
-    <border>
-      <left style="dashed">
-        <color rgb="00EF6C00"/>
-      </left>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="medium"/>
     </border>
     <border>
       <left style="medium">
@@ -230,6 +248,12 @@
       <right style="medium">
         <color rgb="00D32F2F"/>
       </right>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="00D32F2F"/>
+      </right>
     </border>
     <border>
       <right style="medium">
@@ -254,17 +278,11 @@
       </right>
       <bottom style="thin"/>
     </border>
-    <border>
-      <right style="medium">
-        <color rgb="00D32F2F"/>
-      </right>
-      <bottom style="medium"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -276,74 +294,86 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -709,7 +739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
@@ -723,31 +753,31 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="32" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
-    <col width="4" customWidth="1" min="9" max="9"/>
-    <col width="4" customWidth="1" min="10" max="10"/>
-    <col width="4" customWidth="1" min="11" max="11"/>
-    <col width="4" customWidth="1" min="12" max="12"/>
-    <col width="4" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
-    <col width="4" customWidth="1" min="18" max="18"/>
-    <col width="4" customWidth="1" min="19" max="19"/>
-    <col width="4" customWidth="1" min="20" max="20"/>
-    <col width="4" customWidth="1" min="21" max="21"/>
-    <col width="4" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="4" customWidth="1" min="27" max="27"/>
-    <col width="4" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="8" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1034,173 +1064,173 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>O&amp;M Existing Tenant Apps</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>CICD</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t>GitLab Support</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr"/>
-      <c r="E4" s="11" t="inlineStr"/>
-      <c r="F4" s="12" t="inlineStr"/>
-      <c r="G4" s="11" t="inlineStr"/>
-      <c r="H4" s="11" t="inlineStr"/>
-      <c r="I4" s="11" t="inlineStr"/>
-      <c r="J4" s="11" t="inlineStr"/>
-      <c r="K4" s="11" t="inlineStr"/>
-      <c r="L4" s="11" t="inlineStr"/>
-      <c r="M4" s="11" t="inlineStr"/>
-      <c r="N4" s="11" t="inlineStr"/>
-      <c r="O4" s="11" t="inlineStr"/>
-      <c r="P4" s="11" t="inlineStr"/>
-      <c r="Q4" s="11" t="inlineStr"/>
-      <c r="R4" s="11" t="inlineStr"/>
-      <c r="S4" s="11" t="inlineStr"/>
-      <c r="T4" s="11" t="inlineStr"/>
-      <c r="U4" s="11" t="inlineStr"/>
-      <c r="V4" s="11" t="inlineStr"/>
-      <c r="W4" s="11" t="inlineStr"/>
-      <c r="X4" s="11" t="inlineStr"/>
-      <c r="Y4" s="11" t="inlineStr"/>
-      <c r="Z4" s="11" t="inlineStr"/>
-      <c r="AA4" s="11" t="inlineStr"/>
-      <c r="AB4" s="11" t="inlineStr"/>
+          <t>O&amp;M Existing Tenant Apps</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Existing Tenant O&amp;M Support</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr"/>
+      <c r="E4" s="9" t="inlineStr"/>
+      <c r="F4" s="10" t="inlineStr"/>
+      <c r="G4" s="9" t="inlineStr"/>
+      <c r="H4" s="9" t="inlineStr"/>
+      <c r="I4" s="9" t="inlineStr"/>
+      <c r="J4" s="9" t="inlineStr"/>
+      <c r="K4" s="9" t="inlineStr"/>
+      <c r="L4" s="9" t="inlineStr"/>
+      <c r="M4" s="9" t="inlineStr"/>
+      <c r="N4" s="9" t="inlineStr"/>
+      <c r="O4" s="9" t="inlineStr"/>
+      <c r="P4" s="9" t="inlineStr"/>
+      <c r="Q4" s="9" t="inlineStr"/>
+      <c r="R4" s="9" t="inlineStr"/>
+      <c r="S4" s="9" t="inlineStr"/>
+      <c r="T4" s="9" t="inlineStr"/>
+      <c r="U4" s="9" t="inlineStr"/>
+      <c r="V4" s="9" t="inlineStr"/>
+      <c r="W4" s="9" t="inlineStr"/>
+      <c r="X4" s="9" t="inlineStr"/>
+      <c r="Y4" s="9" t="inlineStr"/>
+      <c r="Z4" s="9" t="inlineStr"/>
+      <c r="AA4" s="9" t="inlineStr"/>
+      <c r="AB4" s="9" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="14" t="inlineStr">
-        <is>
-          <t>Bitbucket -&gt; GitLab Migration</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="13" t="n"/>
-      <c r="I5" s="13" t="n"/>
-      <c r="J5" s="13" t="n"/>
-      <c r="K5" s="13" t="n"/>
-      <c r="L5" s="13" t="n"/>
-      <c r="M5" s="16" t="inlineStr"/>
-      <c r="N5" s="16" t="inlineStr"/>
-      <c r="O5" s="16" t="inlineStr"/>
-      <c r="P5" s="16" t="inlineStr"/>
-      <c r="Q5" s="16" t="inlineStr"/>
-      <c r="R5" s="16" t="inlineStr"/>
-      <c r="S5" s="16" t="inlineStr"/>
-      <c r="T5" s="16" t="inlineStr"/>
-      <c r="U5" s="16" t="inlineStr"/>
-      <c r="V5" s="13" t="n"/>
-      <c r="W5" s="13" t="n"/>
-      <c r="X5" s="13" t="n"/>
-      <c r="Y5" s="13" t="n"/>
-      <c r="Z5" s="13" t="n"/>
-      <c r="AA5" s="13" t="n"/>
-      <c r="AB5" s="13" t="n"/>
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>Onboarding Tenant Apps</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>HSM DEV</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>HSM DEV (RMF 0-3)</t>
+        </is>
+      </c>
+      <c r="D5" s="14" t="n"/>
+      <c r="E5" s="15" t="inlineStr"/>
+      <c r="F5" s="16" t="inlineStr"/>
+      <c r="G5" s="15" t="inlineStr"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
+      <c r="J5" s="14" t="n"/>
+      <c r="K5" s="14" t="n"/>
+      <c r="L5" s="14" t="n"/>
+      <c r="M5" s="14" t="n"/>
+      <c r="N5" s="14" t="n"/>
+      <c r="O5" s="14" t="n"/>
+      <c r="P5" s="14" t="n"/>
+      <c r="Q5" s="14" t="n"/>
+      <c r="R5" s="14" t="n"/>
+      <c r="S5" s="14" t="n"/>
+      <c r="T5" s="14" t="n"/>
+      <c r="U5" s="14" t="n"/>
+      <c r="V5" s="14" t="n"/>
+      <c r="W5" s="14" t="n"/>
+      <c r="X5" s="14" t="n"/>
+      <c r="Y5" s="14" t="n"/>
+      <c r="Z5" s="14" t="n"/>
+      <c r="AA5" s="14" t="n"/>
+      <c r="AB5" s="14" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>Image Repository</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>Private hardened registry</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="13" t="n"/>
-      <c r="H6" s="17" t="inlineStr"/>
-      <c r="I6" s="17" t="inlineStr"/>
-      <c r="J6" s="17" t="inlineStr"/>
-      <c r="K6" s="17" t="inlineStr"/>
-      <c r="L6" s="17" t="inlineStr"/>
-      <c r="M6" s="13" t="n"/>
-      <c r="N6" s="13" t="n"/>
-      <c r="O6" s="13" t="n"/>
-      <c r="P6" s="13" t="n"/>
-      <c r="Q6" s="13" t="n"/>
-      <c r="R6" s="13" t="n"/>
-      <c r="S6" s="13" t="n"/>
-      <c r="T6" s="13" t="n"/>
-      <c r="U6" s="13" t="n"/>
-      <c r="V6" s="13" t="n"/>
-      <c r="W6" s="13" t="n"/>
-      <c r="X6" s="13" t="n"/>
-      <c r="Y6" s="13" t="n"/>
-      <c r="Z6" s="13" t="n"/>
-      <c r="AA6" s="13" t="n"/>
-      <c r="AB6" s="13" t="n"/>
+      <c r="A6" s="14" t="n"/>
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>HSM DEV Account Setup</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="17" t="n"/>
+      <c r="G6" s="15" t="inlineStr"/>
+      <c r="H6" s="15" t="inlineStr"/>
+      <c r="I6" s="15" t="inlineStr"/>
+      <c r="J6" s="14" t="n"/>
+      <c r="K6" s="14" t="n"/>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
+      <c r="N6" s="14" t="n"/>
+      <c r="O6" s="14" t="n"/>
+      <c r="P6" s="14" t="n"/>
+      <c r="Q6" s="14" t="n"/>
+      <c r="R6" s="14" t="n"/>
+      <c r="S6" s="14" t="n"/>
+      <c r="T6" s="14" t="n"/>
+      <c r="U6" s="14" t="n"/>
+      <c r="V6" s="14" t="n"/>
+      <c r="W6" s="14" t="n"/>
+      <c r="X6" s="14" t="n"/>
+      <c r="Y6" s="14" t="n"/>
+      <c r="Z6" s="14" t="n"/>
+      <c r="AA6" s="14" t="n"/>
+      <c r="AB6" s="14" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Kubernetes (EKS)</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t>EKS v1 support</t>
-        </is>
-      </c>
-      <c r="D7" s="19" t="inlineStr"/>
-      <c r="E7" s="20" t="inlineStr"/>
-      <c r="F7" s="21" t="inlineStr"/>
-      <c r="G7" s="20" t="inlineStr"/>
-      <c r="H7" s="20" t="inlineStr"/>
-      <c r="I7" s="20" t="inlineStr"/>
-      <c r="J7" s="18" t="n"/>
-      <c r="K7" s="18" t="n"/>
-      <c r="L7" s="18" t="n"/>
-      <c r="M7" s="18" t="n"/>
-      <c r="N7" s="18" t="n"/>
-      <c r="O7" s="18" t="n"/>
-      <c r="P7" s="18" t="n"/>
-      <c r="Q7" s="18" t="n"/>
-      <c r="R7" s="18" t="n"/>
-      <c r="S7" s="18" t="n"/>
-      <c r="T7" s="18" t="n"/>
-      <c r="U7" s="18" t="n"/>
-      <c r="V7" s="18" t="n"/>
-      <c r="W7" s="18" t="n"/>
-      <c r="X7" s="18" t="n"/>
-      <c r="Y7" s="18" t="n"/>
-      <c r="Z7" s="18" t="n"/>
-      <c r="AA7" s="18" t="n"/>
-      <c r="AB7" s="18" t="n"/>
+      <c r="A7" s="14" t="n"/>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>HSM DEV Account Integration</t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="n"/>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="17" t="n"/>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="14" t="n"/>
+      <c r="I7" s="15" t="inlineStr"/>
+      <c r="J7" s="15" t="inlineStr"/>
+      <c r="K7" s="15" t="inlineStr"/>
+      <c r="L7" s="15" t="inlineStr"/>
+      <c r="M7" s="15" t="inlineStr"/>
+      <c r="N7" s="14" t="n"/>
+      <c r="O7" s="14" t="n"/>
+      <c r="P7" s="14" t="n"/>
+      <c r="Q7" s="14" t="n"/>
+      <c r="R7" s="14" t="n"/>
+      <c r="S7" s="14" t="n"/>
+      <c r="T7" s="14" t="n"/>
+      <c r="U7" s="14" t="n"/>
+      <c r="V7" s="14" t="n"/>
+      <c r="W7" s="14" t="n"/>
+      <c r="X7" s="14" t="n"/>
+      <c r="Y7" s="14" t="n"/>
+      <c r="Z7" s="14" t="n"/>
+      <c r="AA7" s="14" t="n"/>
+      <c r="AB7" s="14" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="18" t="n"/>
       <c r="B8" s="18" t="n"/>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>AL2023 AMI hardening and STIG</t>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>HSM Multi-Tenant Resource Cleanup</t>
         </is>
       </c>
       <c r="D8" s="18" t="n"/>
-      <c r="E8" s="19" t="inlineStr"/>
-      <c r="F8" s="21" t="inlineStr"/>
-      <c r="G8" s="20" t="inlineStr"/>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="20" t="n"/>
+      <c r="G8" s="18" t="n"/>
       <c r="H8" s="18" t="n"/>
       <c r="I8" s="18" t="n"/>
       <c r="J8" s="18" t="n"/>
       <c r="K8" s="18" t="n"/>
-      <c r="L8" s="18" t="n"/>
-      <c r="M8" s="18" t="n"/>
+      <c r="L8" s="21" t="inlineStr"/>
+      <c r="M8" s="21" t="inlineStr"/>
       <c r="N8" s="18" t="n"/>
       <c r="O8" s="18" t="n"/>
       <c r="P8" s="18" t="n"/>
@@ -1218,407 +1248,411 @@
       <c r="AB8" s="18" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="n"/>
-      <c r="B9" s="18" t="n"/>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>EKS v2 config</t>
-        </is>
-      </c>
-      <c r="D9" s="18" t="n"/>
-      <c r="E9" s="18" t="n"/>
-      <c r="F9" s="22" t="inlineStr"/>
-      <c r="G9" s="20" t="inlineStr"/>
-      <c r="H9" s="20" t="inlineStr"/>
-      <c r="I9" s="18" t="n"/>
-      <c r="J9" s="18" t="n"/>
-      <c r="K9" s="18" t="n"/>
-      <c r="L9" s="18" t="n"/>
-      <c r="M9" s="18" t="n"/>
-      <c r="N9" s="18" t="n"/>
-      <c r="O9" s="18" t="n"/>
-      <c r="P9" s="18" t="n"/>
-      <c r="Q9" s="18" t="n"/>
-      <c r="R9" s="18" t="n"/>
-      <c r="S9" s="18" t="n"/>
-      <c r="T9" s="18" t="n"/>
-      <c r="U9" s="18" t="n"/>
-      <c r="V9" s="18" t="n"/>
-      <c r="W9" s="18" t="n"/>
-      <c r="X9" s="18" t="n"/>
-      <c r="Y9" s="18" t="n"/>
-      <c r="Z9" s="18" t="n"/>
-      <c r="AA9" s="18" t="n"/>
-      <c r="AB9" s="18" t="n"/>
+      <c r="A9" s="14" t="n"/>
+      <c r="B9" s="12" t="inlineStr">
+        <is>
+          <t>Tenant X PROD</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>Tenant X PROD (RMF 0-3)</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="22" t="inlineStr"/>
+      <c r="F9" s="23" t="inlineStr"/>
+      <c r="G9" s="22" t="inlineStr"/>
+      <c r="H9" s="14" t="n"/>
+      <c r="I9" s="14" t="n"/>
+      <c r="J9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+      <c r="L9" s="14" t="n"/>
+      <c r="M9" s="14" t="n"/>
+      <c r="N9" s="14" t="n"/>
+      <c r="O9" s="14" t="n"/>
+      <c r="P9" s="14" t="n"/>
+      <c r="Q9" s="14" t="n"/>
+      <c r="R9" s="14" t="n"/>
+      <c r="S9" s="14" t="n"/>
+      <c r="T9" s="14" t="n"/>
+      <c r="U9" s="14" t="n"/>
+      <c r="V9" s="14" t="n"/>
+      <c r="W9" s="14" t="n"/>
+      <c r="X9" s="14" t="n"/>
+      <c r="Y9" s="14" t="n"/>
+      <c r="Z9" s="14" t="n"/>
+      <c r="AA9" s="14" t="n"/>
+      <c r="AB9" s="14" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="n"/>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="14" t="inlineStr">
-        <is>
-          <t>Multi-cluster federation</t>
-        </is>
-      </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="13" t="n"/>
-      <c r="F10" s="23" t="inlineStr"/>
-      <c r="G10" s="24" t="inlineStr"/>
-      <c r="H10" s="24" t="inlineStr"/>
-      <c r="I10" s="24" t="inlineStr"/>
-      <c r="J10" s="24" t="inlineStr"/>
-      <c r="K10" s="24" t="inlineStr"/>
-      <c r="L10" s="13" t="n"/>
-      <c r="M10" s="13" t="n"/>
-      <c r="N10" s="13" t="n"/>
-      <c r="O10" s="13" t="n"/>
-      <c r="P10" s="13" t="n"/>
-      <c r="Q10" s="13" t="n"/>
-      <c r="R10" s="13" t="n"/>
-      <c r="S10" s="13" t="n"/>
-      <c r="T10" s="13" t="n"/>
-      <c r="U10" s="13" t="n"/>
-      <c r="V10" s="13" t="n"/>
-      <c r="W10" s="13" t="n"/>
-      <c r="X10" s="13" t="n"/>
-      <c r="Y10" s="13" t="n"/>
-      <c r="Z10" s="13" t="n"/>
-      <c r="AA10" s="13" t="n"/>
-      <c r="AB10" s="13" t="n"/>
+      <c r="A10" s="14" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <t>Tenant X PROD Account Setup</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="17" t="n"/>
+      <c r="G10" s="22" t="inlineStr"/>
+      <c r="H10" s="22" t="inlineStr"/>
+      <c r="I10" s="22" t="inlineStr"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="14" t="n"/>
+      <c r="N10" s="14" t="n"/>
+      <c r="O10" s="14" t="n"/>
+      <c r="P10" s="14" t="n"/>
+      <c r="Q10" s="14" t="n"/>
+      <c r="R10" s="14" t="n"/>
+      <c r="S10" s="14" t="n"/>
+      <c r="T10" s="14" t="n"/>
+      <c r="U10" s="14" t="n"/>
+      <c r="V10" s="14" t="n"/>
+      <c r="W10" s="14" t="n"/>
+      <c r="X10" s="14" t="n"/>
+      <c r="Y10" s="14" t="n"/>
+      <c r="Z10" s="14" t="n"/>
+      <c r="AA10" s="14" t="n"/>
+      <c r="AB10" s="14" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>Tenant X PROD Account Integration</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="17" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="22" t="inlineStr"/>
+      <c r="J11" s="22" t="inlineStr"/>
+      <c r="K11" s="22" t="inlineStr"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="14" t="n"/>
+      <c r="N11" s="14" t="n"/>
+      <c r="O11" s="14" t="n"/>
+      <c r="P11" s="14" t="n"/>
+      <c r="Q11" s="14" t="n"/>
+      <c r="R11" s="14" t="n"/>
+      <c r="S11" s="14" t="n"/>
+      <c r="T11" s="14" t="n"/>
+      <c r="U11" s="14" t="n"/>
+      <c r="V11" s="14" t="n"/>
+      <c r="W11" s="14" t="n"/>
+      <c r="X11" s="14" t="n"/>
+      <c r="Y11" s="14" t="n"/>
+      <c r="Z11" s="14" t="n"/>
+      <c r="AA11" s="14" t="n"/>
+      <c r="AB11" s="14" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="n"/>
+      <c r="B12" s="24" t="n"/>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Tenant X PROD ATO</t>
+        </is>
+      </c>
+      <c r="D12" s="24" t="n"/>
+      <c r="E12" s="24" t="n"/>
+      <c r="F12" s="25" t="n"/>
+      <c r="G12" s="24" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="26" t="inlineStr"/>
+      <c r="J12" s="26" t="inlineStr"/>
+      <c r="K12" s="26" t="inlineStr"/>
+      <c r="L12" s="24" t="n"/>
+      <c r="M12" s="24" t="n"/>
+      <c r="N12" s="24" t="n"/>
+      <c r="O12" s="24" t="n"/>
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="24" t="n"/>
+      <c r="R12" s="24" t="n"/>
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="24" t="n"/>
+      <c r="U12" s="24" t="n"/>
+      <c r="V12" s="24" t="n"/>
+      <c r="W12" s="24" t="n"/>
+      <c r="X12" s="24" t="n"/>
+      <c r="Y12" s="24" t="n"/>
+      <c r="Z12" s="24" t="n"/>
+      <c r="AA12" s="24" t="n"/>
+      <c r="AB12" s="24" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>Core Services</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>Kubernetes (Rancher)</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C13" s="13" t="inlineStr">
         <is>
           <t>Rancher RKE1 support</t>
         </is>
       </c>
-      <c r="D11" s="25" t="inlineStr"/>
-      <c r="E11" s="26" t="inlineStr"/>
-      <c r="F11" s="27" t="inlineStr"/>
-      <c r="G11" s="26" t="inlineStr"/>
-      <c r="H11" s="26" t="inlineStr"/>
-      <c r="I11" s="26" t="inlineStr"/>
-      <c r="J11" s="18" t="n"/>
-      <c r="K11" s="18" t="n"/>
-      <c r="L11" s="18" t="n"/>
-      <c r="M11" s="18" t="n"/>
-      <c r="N11" s="18" t="n"/>
-      <c r="O11" s="18" t="n"/>
-      <c r="P11" s="18" t="n"/>
-      <c r="Q11" s="18" t="n"/>
-      <c r="R11" s="18" t="n"/>
-      <c r="S11" s="18" t="n"/>
-      <c r="T11" s="18" t="n"/>
-      <c r="U11" s="18" t="n"/>
-      <c r="V11" s="18" t="n"/>
-      <c r="W11" s="18" t="n"/>
-      <c r="X11" s="18" t="n"/>
-      <c r="Y11" s="18" t="n"/>
-      <c r="Z11" s="18" t="n"/>
-      <c r="AA11" s="18" t="n"/>
-      <c r="AB11" s="18" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="18" t="n"/>
-      <c r="B12" s="18" t="n"/>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="D13" s="27" t="inlineStr"/>
+      <c r="E13" s="28" t="inlineStr"/>
+      <c r="F13" s="29" t="inlineStr"/>
+      <c r="G13" s="28" t="inlineStr"/>
+      <c r="H13" s="28" t="inlineStr"/>
+      <c r="I13" s="28" t="inlineStr"/>
+      <c r="J13" s="14" t="n"/>
+      <c r="K13" s="14" t="n"/>
+      <c r="L13" s="14" t="n"/>
+      <c r="M13" s="14" t="n"/>
+      <c r="N13" s="14" t="n"/>
+      <c r="O13" s="14" t="n"/>
+      <c r="P13" s="14" t="n"/>
+      <c r="Q13" s="14" t="n"/>
+      <c r="R13" s="14" t="n"/>
+      <c r="S13" s="14" t="n"/>
+      <c r="T13" s="14" t="n"/>
+      <c r="U13" s="14" t="n"/>
+      <c r="V13" s="14" t="n"/>
+      <c r="W13" s="14" t="n"/>
+      <c r="X13" s="14" t="n"/>
+      <c r="Y13" s="14" t="n"/>
+      <c r="Z13" s="14" t="n"/>
+      <c r="AA13" s="14" t="n"/>
+      <c r="AB13" s="14" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n"/>
+      <c r="B14" s="14" t="n"/>
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>Rancher RKE2 development</t>
         </is>
       </c>
-      <c r="D12" s="25" t="inlineStr"/>
-      <c r="E12" s="26" t="inlineStr"/>
-      <c r="F12" s="27" t="inlineStr"/>
-      <c r="G12" s="26" t="inlineStr"/>
-      <c r="H12" s="18" t="n"/>
-      <c r="I12" s="18" t="n"/>
-      <c r="J12" s="18" t="n"/>
-      <c r="K12" s="18" t="n"/>
-      <c r="L12" s="18" t="n"/>
-      <c r="M12" s="18" t="n"/>
-      <c r="N12" s="18" t="n"/>
-      <c r="O12" s="18" t="n"/>
-      <c r="P12" s="18" t="n"/>
-      <c r="Q12" s="18" t="n"/>
-      <c r="R12" s="18" t="n"/>
-      <c r="S12" s="18" t="n"/>
-      <c r="T12" s="18" t="n"/>
-      <c r="U12" s="18" t="n"/>
-      <c r="V12" s="18" t="n"/>
-      <c r="W12" s="18" t="n"/>
-      <c r="X12" s="18" t="n"/>
-      <c r="Y12" s="18" t="n"/>
-      <c r="Z12" s="18" t="n"/>
-      <c r="AA12" s="18" t="n"/>
-      <c r="AB12" s="18" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="18" t="n"/>
-      <c r="B13" s="18" t="n"/>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="D14" s="27" t="inlineStr"/>
+      <c r="E14" s="28" t="inlineStr"/>
+      <c r="F14" s="29" t="inlineStr"/>
+      <c r="G14" s="28" t="inlineStr"/>
+      <c r="H14" s="14" t="n"/>
+      <c r="I14" s="14" t="n"/>
+      <c r="J14" s="14" t="n"/>
+      <c r="K14" s="14" t="n"/>
+      <c r="L14" s="14" t="n"/>
+      <c r="M14" s="14" t="n"/>
+      <c r="N14" s="14" t="n"/>
+      <c r="O14" s="14" t="n"/>
+      <c r="P14" s="14" t="n"/>
+      <c r="Q14" s="14" t="n"/>
+      <c r="R14" s="14" t="n"/>
+      <c r="S14" s="14" t="n"/>
+      <c r="T14" s="14" t="n"/>
+      <c r="U14" s="14" t="n"/>
+      <c r="V14" s="14" t="n"/>
+      <c r="W14" s="14" t="n"/>
+      <c r="X14" s="14" t="n"/>
+      <c r="Y14" s="14" t="n"/>
+      <c r="Z14" s="14" t="n"/>
+      <c r="AA14" s="14" t="n"/>
+      <c r="AB14" s="14" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n"/>
+      <c r="B15" s="14" t="n"/>
+      <c r="C15" s="13" t="inlineStr">
         <is>
           <t>Rancher RKE2 Tenant Migration</t>
         </is>
       </c>
-      <c r="D13" s="18" t="n"/>
-      <c r="E13" s="18" t="n"/>
-      <c r="F13" s="28" t="n"/>
-      <c r="G13" s="18" t="n"/>
-      <c r="H13" s="25" t="inlineStr"/>
-      <c r="I13" s="26" t="inlineStr"/>
-      <c r="J13" s="18" t="n"/>
-      <c r="K13" s="18" t="n"/>
-      <c r="L13" s="18" t="n"/>
-      <c r="M13" s="18" t="n"/>
-      <c r="N13" s="18" t="n"/>
-      <c r="O13" s="18" t="n"/>
-      <c r="P13" s="18" t="n"/>
-      <c r="Q13" s="18" t="n"/>
-      <c r="R13" s="18" t="n"/>
-      <c r="S13" s="18" t="n"/>
-      <c r="T13" s="18" t="n"/>
-      <c r="U13" s="18" t="n"/>
-      <c r="V13" s="18" t="n"/>
-      <c r="W13" s="18" t="n"/>
-      <c r="X13" s="18" t="n"/>
-      <c r="Y13" s="18" t="n"/>
-      <c r="Z13" s="18" t="n"/>
-      <c r="AA13" s="18" t="n"/>
-      <c r="AB13" s="18" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="n"/>
-      <c r="B14" s="13" t="n"/>
-      <c r="C14" s="14" t="inlineStr">
-        <is>
-          <t>Rancher RKE2 Tenant Support</t>
-        </is>
-      </c>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="13" t="n"/>
-      <c r="F14" s="15" t="n"/>
-      <c r="G14" s="13" t="n"/>
-      <c r="H14" s="29" t="inlineStr"/>
-      <c r="I14" s="30" t="inlineStr"/>
-      <c r="J14" s="30" t="inlineStr"/>
-      <c r="K14" s="30" t="inlineStr"/>
-      <c r="L14" s="30" t="inlineStr"/>
-      <c r="M14" s="30" t="inlineStr"/>
-      <c r="N14" s="30" t="inlineStr"/>
-      <c r="O14" s="30" t="inlineStr"/>
-      <c r="P14" s="30" t="inlineStr"/>
-      <c r="Q14" s="30" t="inlineStr"/>
-      <c r="R14" s="30" t="inlineStr"/>
-      <c r="S14" s="30" t="inlineStr"/>
-      <c r="T14" s="30" t="inlineStr"/>
-      <c r="U14" s="30" t="inlineStr"/>
-      <c r="V14" s="30" t="inlineStr"/>
-      <c r="W14" s="30" t="inlineStr"/>
-      <c r="X14" s="30" t="inlineStr"/>
-      <c r="Y14" s="30" t="inlineStr"/>
-      <c r="Z14" s="30" t="inlineStr"/>
-      <c r="AA14" s="30" t="inlineStr"/>
-      <c r="AB14" s="30" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>OAuth</t>
-        </is>
-      </c>
-      <c r="C15" s="9" t="inlineStr">
-        <is>
-          <t>Keycloak OAUTH2 Support</t>
-        </is>
-      </c>
-      <c r="D15" s="31" t="inlineStr"/>
-      <c r="E15" s="32" t="inlineStr"/>
-      <c r="F15" s="33" t="inlineStr"/>
-      <c r="G15" s="32" t="inlineStr"/>
-      <c r="H15" s="32" t="inlineStr"/>
-      <c r="I15" s="32" t="inlineStr"/>
-      <c r="J15" s="18" t="n"/>
-      <c r="K15" s="18" t="n"/>
-      <c r="L15" s="18" t="n"/>
-      <c r="M15" s="18" t="n"/>
-      <c r="N15" s="18" t="n"/>
-      <c r="O15" s="18" t="n"/>
-      <c r="P15" s="18" t="n"/>
-      <c r="Q15" s="18" t="n"/>
-      <c r="R15" s="18" t="n"/>
-      <c r="S15" s="18" t="n"/>
-      <c r="T15" s="18" t="n"/>
-      <c r="U15" s="18" t="n"/>
-      <c r="V15" s="18" t="n"/>
-      <c r="W15" s="18" t="n"/>
-      <c r="X15" s="18" t="n"/>
-      <c r="Y15" s="18" t="n"/>
-      <c r="Z15" s="18" t="n"/>
-      <c r="AA15" s="18" t="n"/>
-      <c r="AB15" s="18" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="14" t="n"/>
+      <c r="F15" s="17" t="n"/>
+      <c r="G15" s="14" t="n"/>
+      <c r="H15" s="27" t="inlineStr"/>
+      <c r="I15" s="28" t="inlineStr"/>
+      <c r="J15" s="14" t="n"/>
+      <c r="K15" s="14" t="n"/>
+      <c r="L15" s="14" t="n"/>
+      <c r="M15" s="14" t="n"/>
+      <c r="N15" s="14" t="n"/>
+      <c r="O15" s="14" t="n"/>
+      <c r="P15" s="14" t="n"/>
+      <c r="Q15" s="14" t="n"/>
+      <c r="R15" s="14" t="n"/>
+      <c r="S15" s="14" t="n"/>
+      <c r="T15" s="14" t="n"/>
+      <c r="U15" s="14" t="n"/>
+      <c r="V15" s="14" t="n"/>
+      <c r="W15" s="14" t="n"/>
+      <c r="X15" s="14" t="n"/>
+      <c r="Y15" s="14" t="n"/>
+      <c r="Z15" s="14" t="n"/>
+      <c r="AA15" s="14" t="n"/>
+      <c r="AB15" s="14" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="18" t="n"/>
       <c r="B16" s="18" t="n"/>
-      <c r="C16" s="9" t="inlineStr">
-        <is>
-          <t>F5 Support</t>
-        </is>
-      </c>
-      <c r="D16" s="34" t="inlineStr"/>
-      <c r="E16" s="32" t="inlineStr"/>
-      <c r="F16" s="33" t="inlineStr"/>
-      <c r="G16" s="32" t="inlineStr"/>
-      <c r="H16" s="32" t="inlineStr"/>
-      <c r="I16" s="32" t="inlineStr"/>
-      <c r="J16" s="18" t="n"/>
-      <c r="K16" s="18" t="n"/>
-      <c r="L16" s="18" t="n"/>
-      <c r="M16" s="18" t="n"/>
-      <c r="N16" s="18" t="n"/>
-      <c r="O16" s="18" t="n"/>
-      <c r="P16" s="18" t="n"/>
-      <c r="Q16" s="18" t="n"/>
-      <c r="R16" s="18" t="n"/>
-      <c r="S16" s="18" t="n"/>
-      <c r="T16" s="18" t="n"/>
-      <c r="U16" s="18" t="n"/>
-      <c r="V16" s="18" t="n"/>
-      <c r="W16" s="18" t="n"/>
-      <c r="X16" s="18" t="n"/>
-      <c r="Y16" s="18" t="n"/>
-      <c r="Z16" s="18" t="n"/>
-      <c r="AA16" s="18" t="n"/>
-      <c r="AB16" s="18" t="n"/>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Rancher RKE2 Tenant Support</t>
+        </is>
+      </c>
+      <c r="D16" s="18" t="n"/>
+      <c r="E16" s="18" t="n"/>
+      <c r="F16" s="20" t="n"/>
+      <c r="G16" s="18" t="n"/>
+      <c r="H16" s="30" t="inlineStr"/>
+      <c r="I16" s="31" t="inlineStr"/>
+      <c r="J16" s="31" t="inlineStr"/>
+      <c r="K16" s="31" t="inlineStr"/>
+      <c r="L16" s="31" t="inlineStr"/>
+      <c r="M16" s="31" t="inlineStr"/>
+      <c r="N16" s="31" t="inlineStr"/>
+      <c r="O16" s="31" t="inlineStr"/>
+      <c r="P16" s="31" t="inlineStr"/>
+      <c r="Q16" s="31" t="inlineStr"/>
+      <c r="R16" s="31" t="inlineStr"/>
+      <c r="S16" s="31" t="inlineStr"/>
+      <c r="T16" s="31" t="inlineStr"/>
+      <c r="U16" s="31" t="inlineStr"/>
+      <c r="V16" s="31" t="inlineStr"/>
+      <c r="W16" s="31" t="inlineStr"/>
+      <c r="X16" s="31" t="inlineStr"/>
+      <c r="Y16" s="31" t="inlineStr"/>
+      <c r="Z16" s="31" t="inlineStr"/>
+      <c r="AA16" s="31" t="inlineStr"/>
+      <c r="AB16" s="31" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="n"/>
-      <c r="B17" s="18" t="n"/>
-      <c r="C17" s="9" t="inlineStr">
-        <is>
-          <t>F5/DEX/OAUTH2 Developmment</t>
-        </is>
-      </c>
-      <c r="D17" s="18" t="n"/>
-      <c r="E17" s="31" t="inlineStr"/>
-      <c r="F17" s="33" t="inlineStr"/>
-      <c r="G17" s="32" t="inlineStr"/>
-      <c r="H17" s="32" t="inlineStr"/>
-      <c r="I17" s="32" t="inlineStr"/>
-      <c r="J17" s="18" t="n"/>
-      <c r="K17" s="18" t="n"/>
-      <c r="L17" s="18" t="n"/>
-      <c r="M17" s="18" t="n"/>
-      <c r="N17" s="18" t="n"/>
-      <c r="O17" s="18" t="n"/>
-      <c r="P17" s="18" t="n"/>
-      <c r="Q17" s="18" t="n"/>
-      <c r="R17" s="18" t="n"/>
-      <c r="S17" s="18" t="n"/>
-      <c r="T17" s="18" t="n"/>
-      <c r="U17" s="18" t="n"/>
-      <c r="V17" s="18" t="n"/>
-      <c r="W17" s="18" t="n"/>
-      <c r="X17" s="18" t="n"/>
-      <c r="Y17" s="18" t="n"/>
-      <c r="Z17" s="18" t="n"/>
-      <c r="AA17" s="18" t="n"/>
-      <c r="AB17" s="18" t="n"/>
+      <c r="A17" s="14" t="n"/>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>Kubernetes (EKS)</t>
+        </is>
+      </c>
+      <c r="C17" s="13" t="inlineStr">
+        <is>
+          <t>EKS v1 support</t>
+        </is>
+      </c>
+      <c r="D17" s="32" t="inlineStr"/>
+      <c r="E17" s="33" t="inlineStr"/>
+      <c r="F17" s="34" t="inlineStr"/>
+      <c r="G17" s="33" t="inlineStr"/>
+      <c r="H17" s="33" t="inlineStr"/>
+      <c r="I17" s="33" t="inlineStr"/>
+      <c r="J17" s="14" t="n"/>
+      <c r="K17" s="14" t="n"/>
+      <c r="L17" s="14" t="n"/>
+      <c r="M17" s="14" t="n"/>
+      <c r="N17" s="14" t="n"/>
+      <c r="O17" s="14" t="n"/>
+      <c r="P17" s="14" t="n"/>
+      <c r="Q17" s="14" t="n"/>
+      <c r="R17" s="14" t="n"/>
+      <c r="S17" s="14" t="n"/>
+      <c r="T17" s="14" t="n"/>
+      <c r="U17" s="14" t="n"/>
+      <c r="V17" s="14" t="n"/>
+      <c r="W17" s="14" t="n"/>
+      <c r="X17" s="14" t="n"/>
+      <c r="Y17" s="14" t="n"/>
+      <c r="Z17" s="14" t="n"/>
+      <c r="AA17" s="14" t="n"/>
+      <c r="AB17" s="14" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="n"/>
-      <c r="B18" s="18" t="n"/>
-      <c r="C18" s="9" t="inlineStr">
-        <is>
-          <t>F5/DEX/OAUTH2 Support</t>
-        </is>
-      </c>
-      <c r="D18" s="18" t="n"/>
-      <c r="E18" s="18" t="n"/>
-      <c r="F18" s="28" t="n"/>
-      <c r="G18" s="18" t="n"/>
-      <c r="H18" s="18" t="n"/>
-      <c r="I18" s="31" t="inlineStr"/>
-      <c r="J18" s="32" t="inlineStr"/>
-      <c r="K18" s="32" t="inlineStr"/>
-      <c r="L18" s="32" t="inlineStr"/>
-      <c r="M18" s="32" t="inlineStr"/>
-      <c r="N18" s="32" t="inlineStr"/>
-      <c r="O18" s="32" t="inlineStr"/>
-      <c r="P18" s="32" t="inlineStr"/>
-      <c r="Q18" s="32" t="inlineStr"/>
-      <c r="R18" s="32" t="inlineStr"/>
-      <c r="S18" s="32" t="inlineStr"/>
-      <c r="T18" s="32" t="inlineStr"/>
-      <c r="U18" s="32" t="inlineStr"/>
-      <c r="V18" s="32" t="inlineStr"/>
-      <c r="W18" s="32" t="inlineStr"/>
-      <c r="X18" s="32" t="inlineStr"/>
-      <c r="Y18" s="32" t="inlineStr"/>
-      <c r="Z18" s="32" t="inlineStr"/>
-      <c r="AA18" s="32" t="inlineStr"/>
-      <c r="AB18" s="32" t="inlineStr"/>
+      <c r="A18" s="14" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="inlineStr">
+        <is>
+          <t>AL2023 AMI hardening and STIG</t>
+        </is>
+      </c>
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="32" t="inlineStr"/>
+      <c r="F18" s="34" t="inlineStr"/>
+      <c r="G18" s="33" t="inlineStr"/>
+      <c r="H18" s="14" t="n"/>
+      <c r="I18" s="14" t="n"/>
+      <c r="J18" s="14" t="n"/>
+      <c r="K18" s="14" t="n"/>
+      <c r="L18" s="14" t="n"/>
+      <c r="M18" s="14" t="n"/>
+      <c r="N18" s="14" t="n"/>
+      <c r="O18" s="14" t="n"/>
+      <c r="P18" s="14" t="n"/>
+      <c r="Q18" s="14" t="n"/>
+      <c r="R18" s="14" t="n"/>
+      <c r="S18" s="14" t="n"/>
+      <c r="T18" s="14" t="n"/>
+      <c r="U18" s="14" t="n"/>
+      <c r="V18" s="14" t="n"/>
+      <c r="W18" s="14" t="n"/>
+      <c r="X18" s="14" t="n"/>
+      <c r="Y18" s="14" t="n"/>
+      <c r="Z18" s="14" t="n"/>
+      <c r="AA18" s="14" t="n"/>
+      <c r="AB18" s="14" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="14" t="inlineStr">
-        <is>
-          <t>F5/DEX/OAUTH2 Support</t>
-        </is>
-      </c>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="15" t="n"/>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="35" t="inlineStr"/>
-      <c r="J19" s="36" t="inlineStr"/>
-      <c r="K19" s="36" t="inlineStr"/>
-      <c r="L19" s="36" t="inlineStr"/>
-      <c r="M19" s="36" t="inlineStr"/>
-      <c r="N19" s="36" t="inlineStr"/>
-      <c r="O19" s="36" t="inlineStr"/>
-      <c r="P19" s="36" t="inlineStr"/>
-      <c r="Q19" s="36" t="inlineStr"/>
-      <c r="R19" s="36" t="inlineStr"/>
-      <c r="S19" s="36" t="inlineStr"/>
-      <c r="T19" s="36" t="inlineStr"/>
-      <c r="U19" s="36" t="inlineStr"/>
-      <c r="V19" s="36" t="inlineStr"/>
-      <c r="W19" s="36" t="inlineStr"/>
-      <c r="X19" s="36" t="inlineStr"/>
-      <c r="Y19" s="36" t="inlineStr"/>
-      <c r="Z19" s="36" t="inlineStr"/>
-      <c r="AA19" s="36" t="inlineStr"/>
-      <c r="AB19" s="36" t="inlineStr"/>
+      <c r="A19" s="14" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="inlineStr">
+        <is>
+          <t>EKS v2 config</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="14" t="n"/>
+      <c r="F19" s="35" t="inlineStr"/>
+      <c r="G19" s="33" t="inlineStr"/>
+      <c r="H19" s="33" t="inlineStr"/>
+      <c r="I19" s="14" t="n"/>
+      <c r="J19" s="14" t="n"/>
+      <c r="K19" s="14" t="n"/>
+      <c r="L19" s="14" t="n"/>
+      <c r="M19" s="14" t="n"/>
+      <c r="N19" s="14" t="n"/>
+      <c r="O19" s="14" t="n"/>
+      <c r="P19" s="14" t="n"/>
+      <c r="Q19" s="14" t="n"/>
+      <c r="R19" s="14" t="n"/>
+      <c r="S19" s="14" t="n"/>
+      <c r="T19" s="14" t="n"/>
+      <c r="U19" s="14" t="n"/>
+      <c r="V19" s="14" t="n"/>
+      <c r="W19" s="14" t="n"/>
+      <c r="X19" s="14" t="n"/>
+      <c r="Y19" s="14" t="n"/>
+      <c r="Z19" s="14" t="n"/>
+      <c r="AA19" s="14" t="n"/>
+      <c r="AB19" s="14" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="18" t="n"/>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>Observability</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="inlineStr">
-        <is>
-          <t>Elastic Support</t>
-        </is>
-      </c>
-      <c r="D20" s="37" t="inlineStr"/>
-      <c r="E20" s="38" t="inlineStr"/>
-      <c r="F20" s="39" t="inlineStr"/>
-      <c r="G20" s="38" t="inlineStr"/>
-      <c r="H20" s="38" t="inlineStr"/>
-      <c r="I20" s="38" t="inlineStr"/>
-      <c r="J20" s="18" t="n"/>
-      <c r="K20" s="18" t="n"/>
+      <c r="B20" s="18" t="n"/>
+      <c r="C20" s="19" t="inlineStr">
+        <is>
+          <t>Multi-cluster federation</t>
+        </is>
+      </c>
+      <c r="D20" s="18" t="n"/>
+      <c r="E20" s="18" t="n"/>
+      <c r="F20" s="36" t="inlineStr"/>
+      <c r="G20" s="37" t="inlineStr"/>
+      <c r="H20" s="37" t="inlineStr"/>
+      <c r="I20" s="37" t="inlineStr"/>
+      <c r="J20" s="37" t="inlineStr"/>
+      <c r="K20" s="37" t="inlineStr"/>
       <c r="L20" s="18" t="n"/>
       <c r="M20" s="18" t="n"/>
       <c r="N20" s="18" t="n"/>
@@ -1638,54 +1672,58 @@
       <c r="AB20" s="18" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="n"/>
-      <c r="B21" s="18" t="n"/>
-      <c r="C21" s="9" t="inlineStr">
-        <is>
-          <t>Prometheus/Grafana Support</t>
-        </is>
-      </c>
-      <c r="D21" s="40" t="inlineStr"/>
-      <c r="E21" s="38" t="inlineStr"/>
-      <c r="F21" s="39" t="inlineStr"/>
-      <c r="G21" s="38" t="inlineStr"/>
-      <c r="H21" s="38" t="inlineStr"/>
-      <c r="I21" s="38" t="inlineStr"/>
-      <c r="J21" s="18" t="n"/>
-      <c r="K21" s="18" t="n"/>
-      <c r="L21" s="18" t="n"/>
-      <c r="M21" s="18" t="n"/>
-      <c r="N21" s="18" t="n"/>
-      <c r="O21" s="18" t="n"/>
-      <c r="P21" s="18" t="n"/>
-      <c r="Q21" s="18" t="n"/>
-      <c r="R21" s="18" t="n"/>
-      <c r="S21" s="18" t="n"/>
-      <c r="T21" s="18" t="n"/>
-      <c r="U21" s="18" t="n"/>
-      <c r="V21" s="18" t="n"/>
-      <c r="W21" s="18" t="n"/>
-      <c r="X21" s="18" t="n"/>
-      <c r="Y21" s="18" t="n"/>
-      <c r="Z21" s="18" t="n"/>
-      <c r="AA21" s="18" t="n"/>
-      <c r="AB21" s="18" t="n"/>
+      <c r="A21" s="14" t="n"/>
+      <c r="B21" s="12" t="inlineStr">
+        <is>
+          <t>Kubernetes (EKS Auto)</t>
+        </is>
+      </c>
+      <c r="C21" s="13" t="inlineStr">
+        <is>
+          <t>EKS Auto Discovery</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="38" t="inlineStr"/>
+      <c r="G21" s="39" t="inlineStr"/>
+      <c r="H21" s="39" t="inlineStr"/>
+      <c r="I21" s="14" t="n"/>
+      <c r="J21" s="14" t="n"/>
+      <c r="K21" s="14" t="n"/>
+      <c r="L21" s="14" t="n"/>
+      <c r="M21" s="14" t="n"/>
+      <c r="N21" s="14" t="n"/>
+      <c r="O21" s="14" t="n"/>
+      <c r="P21" s="14" t="n"/>
+      <c r="Q21" s="14" t="n"/>
+      <c r="R21" s="14" t="n"/>
+      <c r="S21" s="14" t="n"/>
+      <c r="T21" s="14" t="n"/>
+      <c r="U21" s="14" t="n"/>
+      <c r="V21" s="14" t="n"/>
+      <c r="W21" s="14" t="n"/>
+      <c r="X21" s="14" t="n"/>
+      <c r="Y21" s="14" t="n"/>
+      <c r="Z21" s="14" t="n"/>
+      <c r="AA21" s="14" t="n"/>
+      <c r="AB21" s="14" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="18" t="n"/>
       <c r="B22" s="18" t="n"/>
-      <c r="C22" s="9" t="inlineStr">
-        <is>
-          <t>Prometheus/Grafana Add-ons</t>
-        </is>
-      </c>
-      <c r="D22" s="40" t="inlineStr"/>
-      <c r="E22" s="38" t="inlineStr"/>
-      <c r="F22" s="39" t="inlineStr"/>
-      <c r="G22" s="38" t="inlineStr"/>
-      <c r="H22" s="38" t="inlineStr"/>
-      <c r="I22" s="38" t="inlineStr"/>
-      <c r="J22" s="18" t="n"/>
+      <c r="C22" s="19" t="inlineStr">
+        <is>
+          <t>EKS Auto Platform Implementation</t>
+        </is>
+      </c>
+      <c r="D22" s="18" t="n"/>
+      <c r="E22" s="18" t="n"/>
+      <c r="F22" s="20" t="n"/>
+      <c r="G22" s="18" t="n"/>
+      <c r="H22" s="40" t="inlineStr"/>
+      <c r="I22" s="40" t="inlineStr"/>
+      <c r="J22" s="40" t="inlineStr"/>
       <c r="K22" s="18" t="n"/>
       <c r="L22" s="18" t="n"/>
       <c r="M22" s="18" t="n"/>
@@ -1706,469 +1744,417 @@
       <c r="AB22" s="18" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="18" t="n"/>
-      <c r="B23" s="18" t="n"/>
-      <c r="C23" s="9" t="inlineStr">
+      <c r="A23" s="14" t="n"/>
+      <c r="B23" s="12" t="inlineStr">
+        <is>
+          <t>Observability</t>
+        </is>
+      </c>
+      <c r="C23" s="13" t="inlineStr">
         <is>
           <t>Elastic Support</t>
         </is>
       </c>
-      <c r="D23" s="18" t="n"/>
-      <c r="E23" s="18" t="n"/>
-      <c r="F23" s="28" t="n"/>
-      <c r="G23" s="18" t="n"/>
-      <c r="H23" s="18" t="n"/>
-      <c r="I23" s="40" t="inlineStr"/>
-      <c r="J23" s="38" t="inlineStr"/>
-      <c r="K23" s="38" t="inlineStr"/>
-      <c r="L23" s="38" t="inlineStr"/>
-      <c r="M23" s="38" t="inlineStr"/>
-      <c r="N23" s="38" t="inlineStr"/>
-      <c r="O23" s="38" t="inlineStr"/>
-      <c r="P23" s="38" t="inlineStr"/>
-      <c r="Q23" s="38" t="inlineStr"/>
-      <c r="R23" s="38" t="inlineStr"/>
-      <c r="S23" s="38" t="inlineStr"/>
-      <c r="T23" s="38" t="inlineStr"/>
-      <c r="U23" s="38" t="inlineStr"/>
-      <c r="V23" s="38" t="inlineStr"/>
-      <c r="W23" s="38" t="inlineStr"/>
-      <c r="X23" s="38" t="inlineStr"/>
-      <c r="Y23" s="38" t="inlineStr"/>
-      <c r="Z23" s="38" t="inlineStr"/>
-      <c r="AA23" s="38" t="inlineStr"/>
-      <c r="AB23" s="38" t="inlineStr"/>
+      <c r="D23" s="41" t="inlineStr"/>
+      <c r="E23" s="42" t="inlineStr"/>
+      <c r="F23" s="43" t="inlineStr"/>
+      <c r="G23" s="42" t="inlineStr"/>
+      <c r="H23" s="42" t="inlineStr"/>
+      <c r="I23" s="42" t="inlineStr"/>
+      <c r="J23" s="14" t="n"/>
+      <c r="K23" s="14" t="n"/>
+      <c r="L23" s="14" t="n"/>
+      <c r="M23" s="14" t="n"/>
+      <c r="N23" s="14" t="n"/>
+      <c r="O23" s="14" t="n"/>
+      <c r="P23" s="14" t="n"/>
+      <c r="Q23" s="14" t="n"/>
+      <c r="R23" s="14" t="n"/>
+      <c r="S23" s="14" t="n"/>
+      <c r="T23" s="14" t="n"/>
+      <c r="U23" s="14" t="n"/>
+      <c r="V23" s="14" t="n"/>
+      <c r="W23" s="14" t="n"/>
+      <c r="X23" s="14" t="n"/>
+      <c r="Y23" s="14" t="n"/>
+      <c r="Z23" s="14" t="n"/>
+      <c r="AA23" s="14" t="n"/>
+      <c r="AB23" s="14" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="41" t="n"/>
-      <c r="B24" s="41" t="n"/>
-      <c r="C24" s="42" t="inlineStr">
+      <c r="A24" s="14" t="n"/>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="13" t="inlineStr">
         <is>
           <t>Prometheus/Grafana Support</t>
         </is>
       </c>
-      <c r="D24" s="41" t="n"/>
-      <c r="E24" s="41" t="n"/>
-      <c r="F24" s="43" t="n"/>
-      <c r="G24" s="41" t="n"/>
-      <c r="H24" s="41" t="n"/>
-      <c r="I24" s="44" t="inlineStr"/>
-      <c r="J24" s="45" t="inlineStr"/>
-      <c r="K24" s="45" t="inlineStr"/>
-      <c r="L24" s="45" t="inlineStr"/>
-      <c r="M24" s="45" t="inlineStr"/>
-      <c r="N24" s="45" t="inlineStr"/>
-      <c r="O24" s="45" t="inlineStr"/>
-      <c r="P24" s="45" t="inlineStr"/>
-      <c r="Q24" s="45" t="inlineStr"/>
-      <c r="R24" s="45" t="inlineStr"/>
-      <c r="S24" s="45" t="inlineStr"/>
-      <c r="T24" s="45" t="inlineStr"/>
-      <c r="U24" s="45" t="inlineStr"/>
-      <c r="V24" s="45" t="inlineStr"/>
-      <c r="W24" s="45" t="inlineStr"/>
-      <c r="X24" s="45" t="inlineStr"/>
-      <c r="Y24" s="45" t="inlineStr"/>
-      <c r="Z24" s="45" t="inlineStr"/>
-      <c r="AA24" s="45" t="inlineStr"/>
-      <c r="AB24" s="45" t="inlineStr"/>
+      <c r="D24" s="44" t="inlineStr"/>
+      <c r="E24" s="42" t="inlineStr"/>
+      <c r="F24" s="43" t="inlineStr"/>
+      <c r="G24" s="42" t="inlineStr"/>
+      <c r="H24" s="42" t="inlineStr"/>
+      <c r="I24" s="42" t="inlineStr"/>
+      <c r="J24" s="14" t="n"/>
+      <c r="K24" s="14" t="n"/>
+      <c r="L24" s="14" t="n"/>
+      <c r="M24" s="14" t="n"/>
+      <c r="N24" s="14" t="n"/>
+      <c r="O24" s="14" t="n"/>
+      <c r="P24" s="14" t="n"/>
+      <c r="Q24" s="14" t="n"/>
+      <c r="R24" s="14" t="n"/>
+      <c r="S24" s="14" t="n"/>
+      <c r="T24" s="14" t="n"/>
+      <c r="U24" s="14" t="n"/>
+      <c r="V24" s="14" t="n"/>
+      <c r="W24" s="14" t="n"/>
+      <c r="X24" s="14" t="n"/>
+      <c r="Y24" s="14" t="n"/>
+      <c r="Z24" s="14" t="n"/>
+      <c r="AA24" s="14" t="n"/>
+      <c r="AB24" s="14" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="46" t="inlineStr">
-        <is>
-          <t>Core Support Services</t>
-        </is>
-      </c>
-      <c r="B25" s="14" t="inlineStr">
-        <is>
-          <t>AI Enablements</t>
-        </is>
-      </c>
-      <c r="C25" s="14" t="inlineStr">
-        <is>
-          <t>Platform AI assistant beta</t>
-        </is>
-      </c>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="15" t="n"/>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="13" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="47" t="inlineStr"/>
-      <c r="L25" s="47" t="inlineStr"/>
-      <c r="M25" s="47" t="inlineStr"/>
-      <c r="N25" s="47" t="inlineStr"/>
-      <c r="O25" s="47" t="inlineStr"/>
-      <c r="P25" s="47" t="inlineStr"/>
-      <c r="Q25" s="47" t="inlineStr"/>
-      <c r="R25" s="47" t="inlineStr"/>
-      <c r="S25" s="47" t="inlineStr"/>
-      <c r="T25" s="13" t="n"/>
-      <c r="U25" s="13" t="n"/>
-      <c r="V25" s="13" t="n"/>
-      <c r="W25" s="13" t="n"/>
-      <c r="X25" s="13" t="n"/>
-      <c r="Y25" s="13" t="n"/>
-      <c r="Z25" s="13" t="n"/>
-      <c r="AA25" s="13" t="n"/>
-      <c r="AB25" s="13" t="n"/>
+      <c r="A25" s="14" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="13" t="inlineStr">
+        <is>
+          <t>Prometheus/Grafana Add-ons</t>
+        </is>
+      </c>
+      <c r="D25" s="44" t="inlineStr"/>
+      <c r="E25" s="42" t="inlineStr"/>
+      <c r="F25" s="43" t="inlineStr"/>
+      <c r="G25" s="42" t="inlineStr"/>
+      <c r="H25" s="42" t="inlineStr"/>
+      <c r="I25" s="42" t="inlineStr"/>
+      <c r="J25" s="14" t="n"/>
+      <c r="K25" s="14" t="n"/>
+      <c r="L25" s="14" t="n"/>
+      <c r="M25" s="14" t="n"/>
+      <c r="N25" s="14" t="n"/>
+      <c r="O25" s="14" t="n"/>
+      <c r="P25" s="14" t="n"/>
+      <c r="Q25" s="14" t="n"/>
+      <c r="R25" s="14" t="n"/>
+      <c r="S25" s="14" t="n"/>
+      <c r="T25" s="14" t="n"/>
+      <c r="U25" s="14" t="n"/>
+      <c r="V25" s="14" t="n"/>
+      <c r="W25" s="14" t="n"/>
+      <c r="X25" s="14" t="n"/>
+      <c r="Y25" s="14" t="n"/>
+      <c r="Z25" s="14" t="n"/>
+      <c r="AA25" s="14" t="n"/>
+      <c r="AB25" s="14" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="n"/>
-      <c r="B26" s="14" t="inlineStr">
-        <is>
-          <t>Landing Page</t>
-        </is>
-      </c>
-      <c r="C26" s="14" t="inlineStr">
-        <is>
-          <t>Unified platform portal</t>
-        </is>
-      </c>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="48" t="inlineStr"/>
-      <c r="G26" s="49" t="inlineStr"/>
-      <c r="H26" s="49" t="inlineStr"/>
-      <c r="I26" s="49" t="inlineStr"/>
-      <c r="J26" s="49" t="inlineStr"/>
-      <c r="K26" s="13" t="n"/>
-      <c r="L26" s="13" t="n"/>
-      <c r="M26" s="13" t="n"/>
-      <c r="N26" s="13" t="n"/>
-      <c r="O26" s="13" t="n"/>
-      <c r="P26" s="13" t="n"/>
-      <c r="Q26" s="13" t="n"/>
-      <c r="R26" s="13" t="n"/>
-      <c r="S26" s="13" t="n"/>
-      <c r="T26" s="13" t="n"/>
-      <c r="U26" s="13" t="n"/>
-      <c r="V26" s="13" t="n"/>
-      <c r="W26" s="13" t="n"/>
-      <c r="X26" s="13" t="n"/>
-      <c r="Y26" s="13" t="n"/>
-      <c r="Z26" s="13" t="n"/>
-      <c r="AA26" s="13" t="n"/>
-      <c r="AB26" s="13" t="n"/>
+      <c r="A26" s="14" t="n"/>
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="13" t="inlineStr">
+        <is>
+          <t>Elastic Support</t>
+        </is>
+      </c>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="14" t="n"/>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="14" t="n"/>
+      <c r="H26" s="14" t="n"/>
+      <c r="I26" s="44" t="inlineStr"/>
+      <c r="J26" s="42" t="inlineStr"/>
+      <c r="K26" s="42" t="inlineStr"/>
+      <c r="L26" s="42" t="inlineStr"/>
+      <c r="M26" s="42" t="inlineStr"/>
+      <c r="N26" s="42" t="inlineStr"/>
+      <c r="O26" s="42" t="inlineStr"/>
+      <c r="P26" s="42" t="inlineStr"/>
+      <c r="Q26" s="42" t="inlineStr"/>
+      <c r="R26" s="42" t="inlineStr"/>
+      <c r="S26" s="42" t="inlineStr"/>
+      <c r="T26" s="42" t="inlineStr"/>
+      <c r="U26" s="42" t="inlineStr"/>
+      <c r="V26" s="42" t="inlineStr"/>
+      <c r="W26" s="42" t="inlineStr"/>
+      <c r="X26" s="42" t="inlineStr"/>
+      <c r="Y26" s="42" t="inlineStr"/>
+      <c r="Z26" s="42" t="inlineStr"/>
+      <c r="AA26" s="42" t="inlineStr"/>
+      <c r="AB26" s="42" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="41" t="n"/>
-      <c r="B27" s="42" t="inlineStr">
-        <is>
-          <t>Resiliency</t>
-        </is>
-      </c>
-      <c r="C27" s="42" t="inlineStr">
-        <is>
-          <t>Multi-region DR automation</t>
-        </is>
-      </c>
-      <c r="D27" s="41" t="n"/>
-      <c r="E27" s="41" t="n"/>
-      <c r="F27" s="43" t="n"/>
-      <c r="G27" s="41" t="n"/>
-      <c r="H27" s="41" t="n"/>
-      <c r="I27" s="41" t="n"/>
-      <c r="J27" s="50" t="inlineStr"/>
-      <c r="K27" s="50" t="inlineStr"/>
-      <c r="L27" s="50" t="inlineStr"/>
-      <c r="M27" s="50" t="inlineStr"/>
-      <c r="N27" s="50" t="inlineStr"/>
-      <c r="O27" s="50" t="inlineStr"/>
-      <c r="P27" s="50" t="inlineStr"/>
-      <c r="Q27" s="41" t="n"/>
-      <c r="R27" s="41" t="n"/>
-      <c r="S27" s="41" t="n"/>
-      <c r="T27" s="41" t="n"/>
-      <c r="U27" s="41" t="n"/>
-      <c r="V27" s="41" t="n"/>
-      <c r="W27" s="41" t="n"/>
-      <c r="X27" s="41" t="n"/>
-      <c r="Y27" s="41" t="n"/>
-      <c r="Z27" s="41" t="n"/>
-      <c r="AA27" s="41" t="n"/>
-      <c r="AB27" s="41" t="n"/>
+      <c r="A27" s="18" t="n"/>
+      <c r="B27" s="18" t="n"/>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Prometheus/Grafana Support</t>
+        </is>
+      </c>
+      <c r="D27" s="18" t="n"/>
+      <c r="E27" s="18" t="n"/>
+      <c r="F27" s="20" t="n"/>
+      <c r="G27" s="18" t="n"/>
+      <c r="H27" s="18" t="n"/>
+      <c r="I27" s="45" t="inlineStr"/>
+      <c r="J27" s="46" t="inlineStr"/>
+      <c r="K27" s="46" t="inlineStr"/>
+      <c r="L27" s="46" t="inlineStr"/>
+      <c r="M27" s="46" t="inlineStr"/>
+      <c r="N27" s="46" t="inlineStr"/>
+      <c r="O27" s="46" t="inlineStr"/>
+      <c r="P27" s="46" t="inlineStr"/>
+      <c r="Q27" s="46" t="inlineStr"/>
+      <c r="R27" s="46" t="inlineStr"/>
+      <c r="S27" s="46" t="inlineStr"/>
+      <c r="T27" s="46" t="inlineStr"/>
+      <c r="U27" s="46" t="inlineStr"/>
+      <c r="V27" s="46" t="inlineStr"/>
+      <c r="W27" s="46" t="inlineStr"/>
+      <c r="X27" s="46" t="inlineStr"/>
+      <c r="Y27" s="46" t="inlineStr"/>
+      <c r="Z27" s="46" t="inlineStr"/>
+      <c r="AA27" s="46" t="inlineStr"/>
+      <c r="AB27" s="46" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="51" t="inlineStr">
-        <is>
-          <t>DEV C2S Core</t>
-        </is>
-      </c>
-      <c r="B28" s="42" t="inlineStr">
-        <is>
-          <t>DEV C2S Core</t>
-        </is>
-      </c>
-      <c r="C28" s="42" t="inlineStr">
-        <is>
-          <t>DEV enclave platform baseline</t>
-        </is>
-      </c>
-      <c r="D28" s="52" t="inlineStr"/>
-      <c r="E28" s="52" t="inlineStr"/>
-      <c r="F28" s="53" t="inlineStr"/>
-      <c r="G28" s="52" t="inlineStr"/>
-      <c r="H28" s="52" t="inlineStr"/>
-      <c r="I28" s="52" t="inlineStr"/>
-      <c r="J28" s="52" t="inlineStr"/>
-      <c r="K28" s="41" t="n"/>
-      <c r="L28" s="41" t="n"/>
-      <c r="M28" s="41" t="n"/>
-      <c r="N28" s="41" t="n"/>
-      <c r="O28" s="41" t="n"/>
-      <c r="P28" s="41" t="n"/>
-      <c r="Q28" s="41" t="n"/>
-      <c r="R28" s="41" t="n"/>
-      <c r="S28" s="41" t="n"/>
-      <c r="T28" s="41" t="n"/>
-      <c r="U28" s="41" t="n"/>
-      <c r="V28" s="41" t="n"/>
-      <c r="W28" s="41" t="n"/>
-      <c r="X28" s="41" t="n"/>
-      <c r="Y28" s="41" t="n"/>
-      <c r="Z28" s="41" t="n"/>
-      <c r="AA28" s="41" t="n"/>
-      <c r="AB28" s="41" t="n"/>
+      <c r="A28" s="14" t="n"/>
+      <c r="B28" s="12" t="inlineStr">
+        <is>
+          <t>OAuth</t>
+        </is>
+      </c>
+      <c r="C28" s="13" t="inlineStr">
+        <is>
+          <t>Keycloak OAUTH2 Support</t>
+        </is>
+      </c>
+      <c r="D28" s="47" t="inlineStr"/>
+      <c r="E28" s="48" t="inlineStr"/>
+      <c r="F28" s="49" t="inlineStr"/>
+      <c r="G28" s="48" t="inlineStr"/>
+      <c r="H28" s="48" t="inlineStr"/>
+      <c r="I28" s="48" t="inlineStr"/>
+      <c r="J28" s="14" t="n"/>
+      <c r="K28" s="14" t="n"/>
+      <c r="L28" s="14" t="n"/>
+      <c r="M28" s="14" t="n"/>
+      <c r="N28" s="14" t="n"/>
+      <c r="O28" s="14" t="n"/>
+      <c r="P28" s="14" t="n"/>
+      <c r="Q28" s="14" t="n"/>
+      <c r="R28" s="14" t="n"/>
+      <c r="S28" s="14" t="n"/>
+      <c r="T28" s="14" t="n"/>
+      <c r="U28" s="14" t="n"/>
+      <c r="V28" s="14" t="n"/>
+      <c r="W28" s="14" t="n"/>
+      <c r="X28" s="14" t="n"/>
+      <c r="Y28" s="14" t="n"/>
+      <c r="Z28" s="14" t="n"/>
+      <c r="AA28" s="14" t="n"/>
+      <c r="AB28" s="14" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="51" t="inlineStr">
-        <is>
-          <t>DEV C2S Support</t>
-        </is>
-      </c>
-      <c r="B29" s="42" t="inlineStr">
-        <is>
-          <t>DEV C2S Support</t>
-        </is>
-      </c>
-      <c r="C29" s="42" t="inlineStr">
-        <is>
-          <t>DEV enclave operational tooling</t>
-        </is>
-      </c>
-      <c r="D29" s="41" t="n"/>
-      <c r="E29" s="41" t="n"/>
-      <c r="F29" s="43" t="n"/>
-      <c r="G29" s="54" t="inlineStr"/>
-      <c r="H29" s="54" t="inlineStr"/>
-      <c r="I29" s="54" t="inlineStr"/>
-      <c r="J29" s="54" t="inlineStr"/>
-      <c r="K29" s="54" t="inlineStr"/>
-      <c r="L29" s="54" t="inlineStr"/>
-      <c r="M29" s="54" t="inlineStr"/>
-      <c r="N29" s="41" t="n"/>
-      <c r="O29" s="41" t="n"/>
-      <c r="P29" s="41" t="n"/>
-      <c r="Q29" s="41" t="n"/>
-      <c r="R29" s="41" t="n"/>
-      <c r="S29" s="41" t="n"/>
-      <c r="T29" s="41" t="n"/>
-      <c r="U29" s="41" t="n"/>
-      <c r="V29" s="41" t="n"/>
-      <c r="W29" s="41" t="n"/>
-      <c r="X29" s="41" t="n"/>
-      <c r="Y29" s="41" t="n"/>
-      <c r="Z29" s="41" t="n"/>
-      <c r="AA29" s="41" t="n"/>
-      <c r="AB29" s="41" t="n"/>
+      <c r="A29" s="14" t="n"/>
+      <c r="B29" s="14" t="n"/>
+      <c r="C29" s="13" t="inlineStr">
+        <is>
+          <t>F5 Support</t>
+        </is>
+      </c>
+      <c r="D29" s="50" t="inlineStr"/>
+      <c r="E29" s="48" t="inlineStr"/>
+      <c r="F29" s="49" t="inlineStr"/>
+      <c r="G29" s="48" t="inlineStr"/>
+      <c r="H29" s="48" t="inlineStr"/>
+      <c r="I29" s="48" t="inlineStr"/>
+      <c r="J29" s="14" t="n"/>
+      <c r="K29" s="14" t="n"/>
+      <c r="L29" s="14" t="n"/>
+      <c r="M29" s="14" t="n"/>
+      <c r="N29" s="14" t="n"/>
+      <c r="O29" s="14" t="n"/>
+      <c r="P29" s="14" t="n"/>
+      <c r="Q29" s="14" t="n"/>
+      <c r="R29" s="14" t="n"/>
+      <c r="S29" s="14" t="n"/>
+      <c r="T29" s="14" t="n"/>
+      <c r="U29" s="14" t="n"/>
+      <c r="V29" s="14" t="n"/>
+      <c r="W29" s="14" t="n"/>
+      <c r="X29" s="14" t="n"/>
+      <c r="Y29" s="14" t="n"/>
+      <c r="Z29" s="14" t="n"/>
+      <c r="AA29" s="14" t="n"/>
+      <c r="AB29" s="14" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="51" t="inlineStr">
-        <is>
-          <t>FVEY C2S Core</t>
-        </is>
-      </c>
-      <c r="B30" s="42" t="inlineStr">
-        <is>
-          <t>FVEY C2S Core</t>
-        </is>
-      </c>
-      <c r="C30" s="42" t="inlineStr">
-        <is>
-          <t>Cross-domain service mesh</t>
-        </is>
-      </c>
-      <c r="D30" s="41" t="n"/>
-      <c r="E30" s="41" t="n"/>
-      <c r="F30" s="43" t="n"/>
-      <c r="G30" s="41" t="n"/>
-      <c r="H30" s="55" t="inlineStr"/>
-      <c r="I30" s="55" t="inlineStr"/>
-      <c r="J30" s="55" t="inlineStr"/>
-      <c r="K30" s="55" t="inlineStr"/>
-      <c r="L30" s="55" t="inlineStr"/>
-      <c r="M30" s="55" t="inlineStr"/>
-      <c r="N30" s="55" t="inlineStr"/>
-      <c r="O30" s="41" t="n"/>
-      <c r="P30" s="41" t="n"/>
-      <c r="Q30" s="41" t="n"/>
-      <c r="R30" s="41" t="n"/>
-      <c r="S30" s="41" t="n"/>
-      <c r="T30" s="41" t="n"/>
-      <c r="U30" s="41" t="n"/>
-      <c r="V30" s="41" t="n"/>
-      <c r="W30" s="41" t="n"/>
-      <c r="X30" s="41" t="n"/>
-      <c r="Y30" s="41" t="n"/>
-      <c r="Z30" s="41" t="n"/>
-      <c r="AA30" s="41" t="n"/>
-      <c r="AB30" s="41" t="n"/>
+      <c r="A30" s="14" t="n"/>
+      <c r="B30" s="14" t="n"/>
+      <c r="C30" s="13" t="inlineStr">
+        <is>
+          <t>F5/DEX/OAUTH2 Developmment</t>
+        </is>
+      </c>
+      <c r="D30" s="14" t="n"/>
+      <c r="E30" s="47" t="inlineStr"/>
+      <c r="F30" s="49" t="inlineStr"/>
+      <c r="G30" s="48" t="inlineStr"/>
+      <c r="H30" s="48" t="inlineStr"/>
+      <c r="I30" s="48" t="inlineStr"/>
+      <c r="J30" s="14" t="n"/>
+      <c r="K30" s="14" t="n"/>
+      <c r="L30" s="14" t="n"/>
+      <c r="M30" s="14" t="n"/>
+      <c r="N30" s="14" t="n"/>
+      <c r="O30" s="14" t="n"/>
+      <c r="P30" s="14" t="n"/>
+      <c r="Q30" s="14" t="n"/>
+      <c r="R30" s="14" t="n"/>
+      <c r="S30" s="14" t="n"/>
+      <c r="T30" s="14" t="n"/>
+      <c r="U30" s="14" t="n"/>
+      <c r="V30" s="14" t="n"/>
+      <c r="W30" s="14" t="n"/>
+      <c r="X30" s="14" t="n"/>
+      <c r="Y30" s="14" t="n"/>
+      <c r="Z30" s="14" t="n"/>
+      <c r="AA30" s="14" t="n"/>
+      <c r="AB30" s="14" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="51" t="inlineStr">
-        <is>
-          <t>FVEY C2S Support</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="inlineStr">
-        <is>
-          <t>FVEY C2S Support</t>
-        </is>
-      </c>
-      <c r="C31" s="42" t="inlineStr">
-        <is>
-          <t>FVEY compliance automation</t>
-        </is>
-      </c>
-      <c r="D31" s="41" t="n"/>
-      <c r="E31" s="41" t="n"/>
-      <c r="F31" s="43" t="n"/>
-      <c r="G31" s="41" t="n"/>
-      <c r="H31" s="41" t="n"/>
-      <c r="I31" s="56" t="inlineStr"/>
-      <c r="J31" s="56" t="inlineStr"/>
-      <c r="K31" s="56" t="inlineStr"/>
-      <c r="L31" s="56" t="inlineStr"/>
-      <c r="M31" s="56" t="inlineStr"/>
-      <c r="N31" s="56" t="inlineStr"/>
-      <c r="O31" s="56" t="inlineStr"/>
-      <c r="P31" s="56" t="inlineStr"/>
-      <c r="Q31" s="41" t="n"/>
-      <c r="R31" s="41" t="n"/>
-      <c r="S31" s="41" t="n"/>
-      <c r="T31" s="41" t="n"/>
-      <c r="U31" s="41" t="n"/>
-      <c r="V31" s="41" t="n"/>
-      <c r="W31" s="41" t="n"/>
-      <c r="X31" s="41" t="n"/>
-      <c r="Y31" s="41" t="n"/>
-      <c r="Z31" s="41" t="n"/>
-      <c r="AA31" s="41" t="n"/>
-      <c r="AB31" s="41" t="n"/>
+      <c r="A31" s="14" t="n"/>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="13" t="inlineStr">
+        <is>
+          <t>F5/DEX/OAUTH2 Support</t>
+        </is>
+      </c>
+      <c r="D31" s="14" t="n"/>
+      <c r="E31" s="14" t="n"/>
+      <c r="F31" s="17" t="n"/>
+      <c r="G31" s="14" t="n"/>
+      <c r="H31" s="14" t="n"/>
+      <c r="I31" s="47" t="inlineStr"/>
+      <c r="J31" s="48" t="inlineStr"/>
+      <c r="K31" s="48" t="inlineStr"/>
+      <c r="L31" s="48" t="inlineStr"/>
+      <c r="M31" s="48" t="inlineStr"/>
+      <c r="N31" s="48" t="inlineStr"/>
+      <c r="O31" s="48" t="inlineStr"/>
+      <c r="P31" s="48" t="inlineStr"/>
+      <c r="Q31" s="48" t="inlineStr"/>
+      <c r="R31" s="48" t="inlineStr"/>
+      <c r="S31" s="48" t="inlineStr"/>
+      <c r="T31" s="48" t="inlineStr"/>
+      <c r="U31" s="48" t="inlineStr"/>
+      <c r="V31" s="48" t="inlineStr"/>
+      <c r="W31" s="48" t="inlineStr"/>
+      <c r="X31" s="48" t="inlineStr"/>
+      <c r="Y31" s="48" t="inlineStr"/>
+      <c r="Z31" s="48" t="inlineStr"/>
+      <c r="AA31" s="48" t="inlineStr"/>
+      <c r="AB31" s="48" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="51" t="inlineStr">
-        <is>
-          <t>O&amp;M Existing Tenant Apps</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="inlineStr">
-        <is>
-          <t>O&amp;M Existing Tenant Apps</t>
-        </is>
-      </c>
-      <c r="C32" s="42" t="inlineStr">
-        <is>
-          <t>Existing Tenant O&amp;M Support</t>
-        </is>
-      </c>
-      <c r="D32" s="57" t="inlineStr"/>
-      <c r="E32" s="57" t="inlineStr"/>
-      <c r="F32" s="58" t="inlineStr"/>
-      <c r="G32" s="57" t="inlineStr"/>
-      <c r="H32" s="57" t="inlineStr"/>
-      <c r="I32" s="57" t="inlineStr"/>
-      <c r="J32" s="57" t="inlineStr"/>
-      <c r="K32" s="57" t="inlineStr"/>
-      <c r="L32" s="57" t="inlineStr"/>
-      <c r="M32" s="57" t="inlineStr"/>
-      <c r="N32" s="57" t="inlineStr"/>
-      <c r="O32" s="57" t="inlineStr"/>
-      <c r="P32" s="57" t="inlineStr"/>
-      <c r="Q32" s="57" t="inlineStr"/>
-      <c r="R32" s="57" t="inlineStr"/>
-      <c r="S32" s="57" t="inlineStr"/>
-      <c r="T32" s="57" t="inlineStr"/>
-      <c r="U32" s="57" t="inlineStr"/>
-      <c r="V32" s="57" t="inlineStr"/>
-      <c r="W32" s="57" t="inlineStr"/>
-      <c r="X32" s="57" t="inlineStr"/>
-      <c r="Y32" s="57" t="inlineStr"/>
-      <c r="Z32" s="57" t="inlineStr"/>
-      <c r="AA32" s="57" t="inlineStr"/>
-      <c r="AB32" s="57" t="inlineStr"/>
+      <c r="A32" s="18" t="n"/>
+      <c r="B32" s="18" t="n"/>
+      <c r="C32" s="19" t="inlineStr">
+        <is>
+          <t>F5/DEX/OAUTH2 Support</t>
+        </is>
+      </c>
+      <c r="D32" s="18" t="n"/>
+      <c r="E32" s="18" t="n"/>
+      <c r="F32" s="20" t="n"/>
+      <c r="G32" s="18" t="n"/>
+      <c r="H32" s="18" t="n"/>
+      <c r="I32" s="51" t="inlineStr"/>
+      <c r="J32" s="52" t="inlineStr"/>
+      <c r="K32" s="52" t="inlineStr"/>
+      <c r="L32" s="52" t="inlineStr"/>
+      <c r="M32" s="52" t="inlineStr"/>
+      <c r="N32" s="52" t="inlineStr"/>
+      <c r="O32" s="52" t="inlineStr"/>
+      <c r="P32" s="52" t="inlineStr"/>
+      <c r="Q32" s="52" t="inlineStr"/>
+      <c r="R32" s="52" t="inlineStr"/>
+      <c r="S32" s="52" t="inlineStr"/>
+      <c r="T32" s="52" t="inlineStr"/>
+      <c r="U32" s="52" t="inlineStr"/>
+      <c r="V32" s="52" t="inlineStr"/>
+      <c r="W32" s="52" t="inlineStr"/>
+      <c r="X32" s="52" t="inlineStr"/>
+      <c r="Y32" s="52" t="inlineStr"/>
+      <c r="Z32" s="52" t="inlineStr"/>
+      <c r="AA32" s="52" t="inlineStr"/>
+      <c r="AB32" s="52" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>Onboarding Tenant Apps</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>HSM DEV</t>
-        </is>
-      </c>
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>HSM DEV (RMF 0-3)</t>
-        </is>
-      </c>
-      <c r="D33" s="18" t="n"/>
-      <c r="E33" s="59" t="inlineStr"/>
-      <c r="F33" s="60" t="inlineStr"/>
-      <c r="G33" s="59" t="inlineStr"/>
-      <c r="H33" s="18" t="n"/>
-      <c r="I33" s="18" t="n"/>
-      <c r="J33" s="18" t="n"/>
-      <c r="K33" s="18" t="n"/>
-      <c r="L33" s="18" t="n"/>
-      <c r="M33" s="18" t="n"/>
-      <c r="N33" s="18" t="n"/>
-      <c r="O33" s="18" t="n"/>
-      <c r="P33" s="18" t="n"/>
-      <c r="Q33" s="18" t="n"/>
-      <c r="R33" s="18" t="n"/>
-      <c r="S33" s="18" t="n"/>
-      <c r="T33" s="18" t="n"/>
-      <c r="U33" s="18" t="n"/>
-      <c r="V33" s="18" t="n"/>
-      <c r="W33" s="18" t="n"/>
-      <c r="X33" s="18" t="n"/>
-      <c r="Y33" s="18" t="n"/>
-      <c r="Z33" s="18" t="n"/>
-      <c r="AA33" s="18" t="n"/>
-      <c r="AB33" s="18" t="n"/>
+      <c r="A33" s="14" t="n"/>
+      <c r="B33" s="12" t="inlineStr">
+        <is>
+          <t>CICD</t>
+        </is>
+      </c>
+      <c r="C33" s="13" t="inlineStr">
+        <is>
+          <t>GitLab Support</t>
+        </is>
+      </c>
+      <c r="D33" s="53" t="inlineStr"/>
+      <c r="E33" s="54" t="inlineStr"/>
+      <c r="F33" s="55" t="inlineStr"/>
+      <c r="G33" s="54" t="inlineStr"/>
+      <c r="H33" s="54" t="inlineStr"/>
+      <c r="I33" s="54" t="inlineStr"/>
+      <c r="J33" s="54" t="inlineStr"/>
+      <c r="K33" s="54" t="inlineStr"/>
+      <c r="L33" s="54" t="inlineStr"/>
+      <c r="M33" s="54" t="inlineStr"/>
+      <c r="N33" s="54" t="inlineStr"/>
+      <c r="O33" s="54" t="inlineStr"/>
+      <c r="P33" s="54" t="inlineStr"/>
+      <c r="Q33" s="54" t="inlineStr"/>
+      <c r="R33" s="54" t="inlineStr"/>
+      <c r="S33" s="54" t="inlineStr"/>
+      <c r="T33" s="54" t="inlineStr"/>
+      <c r="U33" s="54" t="inlineStr"/>
+      <c r="V33" s="54" t="inlineStr"/>
+      <c r="W33" s="54" t="inlineStr"/>
+      <c r="X33" s="54" t="inlineStr"/>
+      <c r="Y33" s="54" t="inlineStr"/>
+      <c r="Z33" s="54" t="inlineStr"/>
+      <c r="AA33" s="54" t="inlineStr"/>
+      <c r="AB33" s="54" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="18" t="n"/>
       <c r="B34" s="18" t="n"/>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>HSM DEV Account Setup</t>
+      <c r="C34" s="19" t="inlineStr">
+        <is>
+          <t>Bitbucket -&gt; GitLab Migration</t>
         </is>
       </c>
       <c r="D34" s="18" t="n"/>
       <c r="E34" s="18" t="n"/>
-      <c r="F34" s="28" t="n"/>
-      <c r="G34" s="59" t="inlineStr"/>
-      <c r="H34" s="59" t="inlineStr"/>
-      <c r="I34" s="59" t="inlineStr"/>
+      <c r="F34" s="20" t="n"/>
+      <c r="G34" s="18" t="n"/>
+      <c r="H34" s="18" t="n"/>
+      <c r="I34" s="18" t="n"/>
       <c r="J34" s="18" t="n"/>
       <c r="K34" s="18" t="n"/>
       <c r="L34" s="18" t="n"/>
-      <c r="M34" s="18" t="n"/>
-      <c r="N34" s="18" t="n"/>
-      <c r="O34" s="18" t="n"/>
-      <c r="P34" s="18" t="n"/>
-      <c r="Q34" s="18" t="n"/>
-      <c r="R34" s="18" t="n"/>
-      <c r="S34" s="18" t="n"/>
-      <c r="T34" s="18" t="n"/>
-      <c r="U34" s="18" t="n"/>
+      <c r="M34" s="56" t="inlineStr"/>
+      <c r="N34" s="56" t="inlineStr"/>
+      <c r="O34" s="56" t="inlineStr"/>
+      <c r="P34" s="56" t="inlineStr"/>
+      <c r="Q34" s="56" t="inlineStr"/>
+      <c r="R34" s="56" t="inlineStr"/>
+      <c r="S34" s="56" t="inlineStr"/>
+      <c r="T34" s="56" t="inlineStr"/>
+      <c r="U34" s="56" t="inlineStr"/>
       <c r="V34" s="18" t="n"/>
       <c r="W34" s="18" t="n"/>
       <c r="X34" s="18" t="n"/>
@@ -2178,257 +2164,696 @@
       <c r="AB34" s="18" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="18" t="n"/>
-      <c r="B35" s="18" t="n"/>
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>HSM DEV Account Integration</t>
-        </is>
-      </c>
-      <c r="D35" s="18" t="n"/>
-      <c r="E35" s="18" t="n"/>
-      <c r="F35" s="28" t="n"/>
-      <c r="G35" s="18" t="n"/>
-      <c r="H35" s="18" t="n"/>
-      <c r="I35" s="59" t="inlineStr"/>
-      <c r="J35" s="59" t="inlineStr"/>
-      <c r="K35" s="59" t="inlineStr"/>
-      <c r="L35" s="59" t="inlineStr"/>
-      <c r="M35" s="59" t="inlineStr"/>
-      <c r="N35" s="18" t="n"/>
-      <c r="O35" s="18" t="n"/>
-      <c r="P35" s="18" t="n"/>
-      <c r="Q35" s="18" t="n"/>
-      <c r="R35" s="18" t="n"/>
-      <c r="S35" s="18" t="n"/>
-      <c r="T35" s="18" t="n"/>
-      <c r="U35" s="18" t="n"/>
-      <c r="V35" s="18" t="n"/>
-      <c r="W35" s="18" t="n"/>
-      <c r="X35" s="18" t="n"/>
-      <c r="Y35" s="18" t="n"/>
-      <c r="Z35" s="18" t="n"/>
-      <c r="AA35" s="18" t="n"/>
-      <c r="AB35" s="18" t="n"/>
+      <c r="A35" s="14" t="n"/>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>Image Repository</t>
+        </is>
+      </c>
+      <c r="C35" s="13" t="inlineStr">
+        <is>
+          <t>Harbor Implementation (CY failover)</t>
+        </is>
+      </c>
+      <c r="D35" s="57" t="inlineStr"/>
+      <c r="E35" s="57" t="inlineStr"/>
+      <c r="F35" s="58" t="inlineStr"/>
+      <c r="G35" s="57" t="inlineStr"/>
+      <c r="H35" s="14" t="n"/>
+      <c r="I35" s="14" t="n"/>
+      <c r="J35" s="14" t="n"/>
+      <c r="K35" s="14" t="n"/>
+      <c r="L35" s="14" t="n"/>
+      <c r="M35" s="14" t="n"/>
+      <c r="N35" s="14" t="n"/>
+      <c r="O35" s="14" t="n"/>
+      <c r="P35" s="14" t="n"/>
+      <c r="Q35" s="14" t="n"/>
+      <c r="R35" s="14" t="n"/>
+      <c r="S35" s="14" t="n"/>
+      <c r="T35" s="14" t="n"/>
+      <c r="U35" s="14" t="n"/>
+      <c r="V35" s="14" t="n"/>
+      <c r="W35" s="14" t="n"/>
+      <c r="X35" s="14" t="n"/>
+      <c r="Y35" s="14" t="n"/>
+      <c r="Z35" s="14" t="n"/>
+      <c r="AA35" s="14" t="n"/>
+      <c r="AB35" s="14" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="n"/>
-      <c r="B36" s="13" t="n"/>
-      <c r="C36" s="14" t="inlineStr">
-        <is>
-          <t>HSM Multi-Tenant Resource Cleanup</t>
-        </is>
-      </c>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="13" t="n"/>
-      <c r="F36" s="15" t="n"/>
-      <c r="G36" s="13" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="13" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
-      <c r="L36" s="61" t="inlineStr"/>
-      <c r="M36" s="61" t="inlineStr"/>
-      <c r="N36" s="13" t="n"/>
-      <c r="O36" s="13" t="n"/>
-      <c r="P36" s="13" t="n"/>
-      <c r="Q36" s="13" t="n"/>
-      <c r="R36" s="13" t="n"/>
-      <c r="S36" s="13" t="n"/>
-      <c r="T36" s="13" t="n"/>
-      <c r="U36" s="13" t="n"/>
-      <c r="V36" s="13" t="n"/>
-      <c r="W36" s="13" t="n"/>
-      <c r="X36" s="13" t="n"/>
-      <c r="Y36" s="13" t="n"/>
-      <c r="Z36" s="13" t="n"/>
-      <c r="AA36" s="13" t="n"/>
-      <c r="AB36" s="13" t="n"/>
+      <c r="A36" s="14" t="n"/>
+      <c r="B36" s="14" t="n"/>
+      <c r="C36" s="13" t="inlineStr">
+        <is>
+          <t>Internal PROD ECR Implementation</t>
+        </is>
+      </c>
+      <c r="D36" s="14" t="n"/>
+      <c r="E36" s="57" t="inlineStr"/>
+      <c r="F36" s="58" t="inlineStr"/>
+      <c r="G36" s="57" t="inlineStr"/>
+      <c r="H36" s="14" t="n"/>
+      <c r="I36" s="14" t="n"/>
+      <c r="J36" s="14" t="n"/>
+      <c r="K36" s="14" t="n"/>
+      <c r="L36" s="14" t="n"/>
+      <c r="M36" s="14" t="n"/>
+      <c r="N36" s="14" t="n"/>
+      <c r="O36" s="14" t="n"/>
+      <c r="P36" s="14" t="n"/>
+      <c r="Q36" s="14" t="n"/>
+      <c r="R36" s="14" t="n"/>
+      <c r="S36" s="14" t="n"/>
+      <c r="T36" s="14" t="n"/>
+      <c r="U36" s="14" t="n"/>
+      <c r="V36" s="14" t="n"/>
+      <c r="W36" s="14" t="n"/>
+      <c r="X36" s="14" t="n"/>
+      <c r="Y36" s="14" t="n"/>
+      <c r="Z36" s="14" t="n"/>
+      <c r="AA36" s="14" t="n"/>
+      <c r="AB36" s="14" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="18" t="n"/>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>Tenant X PROD</t>
-        </is>
-      </c>
-      <c r="C37" s="9" t="inlineStr">
-        <is>
-          <t>Tenant X PROD (RMF 0-3)</t>
-        </is>
-      </c>
-      <c r="D37" s="18" t="n"/>
-      <c r="E37" s="62" t="inlineStr"/>
-      <c r="F37" s="63" t="inlineStr"/>
-      <c r="G37" s="62" t="inlineStr"/>
-      <c r="H37" s="18" t="n"/>
-      <c r="I37" s="18" t="n"/>
-      <c r="J37" s="18" t="n"/>
-      <c r="K37" s="18" t="n"/>
-      <c r="L37" s="18" t="n"/>
-      <c r="M37" s="18" t="n"/>
-      <c r="N37" s="18" t="n"/>
-      <c r="O37" s="18" t="n"/>
-      <c r="P37" s="18" t="n"/>
-      <c r="Q37" s="18" t="n"/>
-      <c r="R37" s="18" t="n"/>
-      <c r="S37" s="18" t="n"/>
-      <c r="T37" s="18" t="n"/>
-      <c r="U37" s="18" t="n"/>
-      <c r="V37" s="18" t="n"/>
-      <c r="W37" s="18" t="n"/>
-      <c r="X37" s="18" t="n"/>
-      <c r="Y37" s="18" t="n"/>
-      <c r="Z37" s="18" t="n"/>
-      <c r="AA37" s="18" t="n"/>
-      <c r="AB37" s="18" t="n"/>
+      <c r="A37" s="14" t="n"/>
+      <c r="B37" s="14" t="n"/>
+      <c r="C37" s="13" t="inlineStr">
+        <is>
+          <t>Internal PROD ECR Migration</t>
+        </is>
+      </c>
+      <c r="D37" s="14" t="n"/>
+      <c r="E37" s="14" t="n"/>
+      <c r="F37" s="17" t="n"/>
+      <c r="G37" s="57" t="inlineStr"/>
+      <c r="H37" s="57" t="inlineStr"/>
+      <c r="I37" s="57" t="inlineStr"/>
+      <c r="J37" s="14" t="n"/>
+      <c r="K37" s="14" t="n"/>
+      <c r="L37" s="14" t="n"/>
+      <c r="M37" s="14" t="n"/>
+      <c r="N37" s="14" t="n"/>
+      <c r="O37" s="14" t="n"/>
+      <c r="P37" s="14" t="n"/>
+      <c r="Q37" s="14" t="n"/>
+      <c r="R37" s="14" t="n"/>
+      <c r="S37" s="14" t="n"/>
+      <c r="T37" s="14" t="n"/>
+      <c r="U37" s="14" t="n"/>
+      <c r="V37" s="14" t="n"/>
+      <c r="W37" s="14" t="n"/>
+      <c r="X37" s="14" t="n"/>
+      <c r="Y37" s="14" t="n"/>
+      <c r="Z37" s="14" t="n"/>
+      <c r="AA37" s="14" t="n"/>
+      <c r="AB37" s="14" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="18" t="n"/>
-      <c r="B38" s="18" t="n"/>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Tenant X PROD Account Setup</t>
-        </is>
-      </c>
-      <c r="D38" s="18" t="n"/>
-      <c r="E38" s="18" t="n"/>
-      <c r="F38" s="28" t="n"/>
-      <c r="G38" s="62" t="inlineStr"/>
-      <c r="H38" s="62" t="inlineStr"/>
-      <c r="I38" s="62" t="inlineStr"/>
-      <c r="J38" s="18" t="n"/>
-      <c r="K38" s="18" t="n"/>
-      <c r="L38" s="18" t="n"/>
-      <c r="M38" s="18" t="n"/>
-      <c r="N38" s="18" t="n"/>
-      <c r="O38" s="18" t="n"/>
-      <c r="P38" s="18" t="n"/>
-      <c r="Q38" s="18" t="n"/>
-      <c r="R38" s="18" t="n"/>
-      <c r="S38" s="18" t="n"/>
-      <c r="T38" s="18" t="n"/>
-      <c r="U38" s="18" t="n"/>
-      <c r="V38" s="18" t="n"/>
-      <c r="W38" s="18" t="n"/>
-      <c r="X38" s="18" t="n"/>
-      <c r="Y38" s="18" t="n"/>
-      <c r="Z38" s="18" t="n"/>
-      <c r="AA38" s="18" t="n"/>
-      <c r="AB38" s="18" t="n"/>
+      <c r="A38" s="24" t="n"/>
+      <c r="B38" s="24" t="n"/>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>ECR Baseline</t>
+        </is>
+      </c>
+      <c r="D38" s="24" t="n"/>
+      <c r="E38" s="24" t="n"/>
+      <c r="F38" s="25" t="n"/>
+      <c r="G38" s="24" t="n"/>
+      <c r="H38" s="24" t="n"/>
+      <c r="I38" s="59" t="inlineStr"/>
+      <c r="J38" s="60" t="inlineStr"/>
+      <c r="K38" s="60" t="inlineStr"/>
+      <c r="L38" s="60" t="inlineStr"/>
+      <c r="M38" s="60" t="inlineStr"/>
+      <c r="N38" s="60" t="inlineStr"/>
+      <c r="O38" s="60" t="inlineStr"/>
+      <c r="P38" s="60" t="inlineStr"/>
+      <c r="Q38" s="60" t="inlineStr"/>
+      <c r="R38" s="60" t="inlineStr"/>
+      <c r="S38" s="60" t="inlineStr"/>
+      <c r="T38" s="60" t="inlineStr"/>
+      <c r="U38" s="60" t="inlineStr"/>
+      <c r="V38" s="60" t="inlineStr"/>
+      <c r="W38" s="60" t="inlineStr"/>
+      <c r="X38" s="60" t="inlineStr"/>
+      <c r="Y38" s="60" t="inlineStr"/>
+      <c r="Z38" s="60" t="inlineStr"/>
+      <c r="AA38" s="60" t="inlineStr"/>
+      <c r="AB38" s="60" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="18" t="n"/>
-      <c r="B39" s="18" t="n"/>
-      <c r="C39" s="9" t="inlineStr">
-        <is>
-          <t>Tenant X PROD Account Integration</t>
-        </is>
-      </c>
-      <c r="D39" s="18" t="n"/>
-      <c r="E39" s="18" t="n"/>
-      <c r="F39" s="28" t="n"/>
-      <c r="G39" s="18" t="n"/>
-      <c r="H39" s="18" t="n"/>
-      <c r="I39" s="62" t="inlineStr"/>
-      <c r="J39" s="62" t="inlineStr"/>
-      <c r="K39" s="62" t="inlineStr"/>
-      <c r="L39" s="18" t="n"/>
-      <c r="M39" s="18" t="n"/>
-      <c r="N39" s="18" t="n"/>
-      <c r="O39" s="18" t="n"/>
-      <c r="P39" s="18" t="n"/>
-      <c r="Q39" s="18" t="n"/>
-      <c r="R39" s="18" t="n"/>
-      <c r="S39" s="18" t="n"/>
-      <c r="T39" s="18" t="n"/>
-      <c r="U39" s="18" t="n"/>
-      <c r="V39" s="18" t="n"/>
-      <c r="W39" s="18" t="n"/>
-      <c r="X39" s="18" t="n"/>
-      <c r="Y39" s="18" t="n"/>
-      <c r="Z39" s="18" t="n"/>
-      <c r="AA39" s="18" t="n"/>
-      <c r="AB39" s="18" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>Resiliency</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>WEST Standalone Account</t>
+        </is>
+      </c>
+      <c r="C39" s="13" t="inlineStr">
+        <is>
+          <t>WEST Asset RMF (0-3)</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="n"/>
+      <c r="E39" s="14" t="n"/>
+      <c r="F39" s="61" t="inlineStr"/>
+      <c r="G39" s="62" t="inlineStr"/>
+      <c r="H39" s="62" t="inlineStr"/>
+      <c r="I39" s="14" t="n"/>
+      <c r="J39" s="14" t="n"/>
+      <c r="K39" s="14" t="n"/>
+      <c r="L39" s="14" t="n"/>
+      <c r="M39" s="14" t="n"/>
+      <c r="N39" s="14" t="n"/>
+      <c r="O39" s="14" t="n"/>
+      <c r="P39" s="14" t="n"/>
+      <c r="Q39" s="14" t="n"/>
+      <c r="R39" s="14" t="n"/>
+      <c r="S39" s="14" t="n"/>
+      <c r="T39" s="14" t="n"/>
+      <c r="U39" s="14" t="n"/>
+      <c r="V39" s="14" t="n"/>
+      <c r="W39" s="14" t="n"/>
+      <c r="X39" s="14" t="n"/>
+      <c r="Y39" s="14" t="n"/>
+      <c r="Z39" s="14" t="n"/>
+      <c r="AA39" s="14" t="n"/>
+      <c r="AB39" s="14" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="41" t="n"/>
-      <c r="B40" s="41" t="n"/>
-      <c r="C40" s="42" t="inlineStr">
-        <is>
-          <t>Tenant X PROD ATO</t>
-        </is>
-      </c>
-      <c r="D40" s="41" t="n"/>
-      <c r="E40" s="41" t="n"/>
-      <c r="F40" s="43" t="n"/>
-      <c r="G40" s="41" t="n"/>
-      <c r="H40" s="41" t="n"/>
-      <c r="I40" s="64" t="inlineStr"/>
-      <c r="J40" s="64" t="inlineStr"/>
-      <c r="K40" s="64" t="inlineStr"/>
-      <c r="L40" s="41" t="n"/>
-      <c r="M40" s="41" t="n"/>
-      <c r="N40" s="41" t="n"/>
-      <c r="O40" s="41" t="n"/>
-      <c r="P40" s="41" t="n"/>
-      <c r="Q40" s="41" t="n"/>
-      <c r="R40" s="41" t="n"/>
-      <c r="S40" s="41" t="n"/>
-      <c r="T40" s="41" t="n"/>
-      <c r="U40" s="41" t="n"/>
-      <c r="V40" s="41" t="n"/>
-      <c r="W40" s="41" t="n"/>
-      <c r="X40" s="41" t="n"/>
-      <c r="Y40" s="41" t="n"/>
-      <c r="Z40" s="41" t="n"/>
-      <c r="AA40" s="41" t="n"/>
-      <c r="AB40" s="41" t="n"/>
+      <c r="A40" s="14" t="n"/>
+      <c r="B40" s="14" t="n"/>
+      <c r="C40" s="13" t="inlineStr">
+        <is>
+          <t>WEST Standalone Asset Discovery</t>
+        </is>
+      </c>
+      <c r="D40" s="14" t="n"/>
+      <c r="E40" s="14" t="n"/>
+      <c r="F40" s="17" t="n"/>
+      <c r="G40" s="14" t="n"/>
+      <c r="H40" s="62" t="inlineStr"/>
+      <c r="I40" s="62" t="inlineStr"/>
+      <c r="J40" s="62" t="inlineStr"/>
+      <c r="K40" s="62" t="inlineStr"/>
+      <c r="L40" s="62" t="inlineStr"/>
+      <c r="M40" s="62" t="inlineStr"/>
+      <c r="N40" s="62" t="inlineStr"/>
+      <c r="O40" s="14" t="n"/>
+      <c r="P40" s="14" t="n"/>
+      <c r="Q40" s="14" t="n"/>
+      <c r="R40" s="14" t="n"/>
+      <c r="S40" s="14" t="n"/>
+      <c r="T40" s="14" t="n"/>
+      <c r="U40" s="14" t="n"/>
+      <c r="V40" s="14" t="n"/>
+      <c r="W40" s="14" t="n"/>
+      <c r="X40" s="14" t="n"/>
+      <c r="Y40" s="14" t="n"/>
+      <c r="Z40" s="14" t="n"/>
+      <c r="AA40" s="14" t="n"/>
+      <c r="AB40" s="14" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="18" t="n"/>
+      <c r="B41" s="18" t="n"/>
+      <c r="C41" s="19" t="inlineStr">
+        <is>
+          <t>WEST Standalone Account Build</t>
+        </is>
+      </c>
+      <c r="D41" s="18" t="n"/>
+      <c r="E41" s="18" t="n"/>
+      <c r="F41" s="20" t="n"/>
+      <c r="G41" s="18" t="n"/>
+      <c r="H41" s="18" t="n"/>
+      <c r="I41" s="18" t="n"/>
+      <c r="J41" s="63" t="inlineStr"/>
+      <c r="K41" s="63" t="inlineStr"/>
+      <c r="L41" s="63" t="inlineStr"/>
+      <c r="M41" s="63" t="inlineStr"/>
+      <c r="N41" s="63" t="inlineStr"/>
+      <c r="O41" s="18" t="n"/>
+      <c r="P41" s="18" t="n"/>
+      <c r="Q41" s="18" t="n"/>
+      <c r="R41" s="18" t="n"/>
+      <c r="S41" s="18" t="n"/>
+      <c r="T41" s="18" t="n"/>
+      <c r="U41" s="18" t="n"/>
+      <c r="V41" s="18" t="n"/>
+      <c r="W41" s="18" t="n"/>
+      <c r="X41" s="18" t="n"/>
+      <c r="Y41" s="18" t="n"/>
+      <c r="Z41" s="18" t="n"/>
+      <c r="AA41" s="18" t="n"/>
+      <c r="AB41" s="18" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="14" t="n"/>
+      <c r="B42" s="12" t="inlineStr">
+        <is>
+          <t>EAST -&gt; West Failover</t>
+        </is>
+      </c>
+      <c r="C42" s="13" t="inlineStr">
+        <is>
+          <t>EAST -&gt; WEST Failover Discovery</t>
+        </is>
+      </c>
+      <c r="D42" s="14" t="n"/>
+      <c r="E42" s="14" t="n"/>
+      <c r="F42" s="17" t="n"/>
+      <c r="G42" s="14" t="n"/>
+      <c r="H42" s="14" t="n"/>
+      <c r="I42" s="14" t="n"/>
+      <c r="J42" s="64" t="inlineStr"/>
+      <c r="K42" s="64" t="inlineStr"/>
+      <c r="L42" s="64" t="inlineStr"/>
+      <c r="M42" s="14" t="n"/>
+      <c r="N42" s="14" t="n"/>
+      <c r="O42" s="14" t="n"/>
+      <c r="P42" s="14" t="n"/>
+      <c r="Q42" s="14" t="n"/>
+      <c r="R42" s="14" t="n"/>
+      <c r="S42" s="14" t="n"/>
+      <c r="T42" s="14" t="n"/>
+      <c r="U42" s="14" t="n"/>
+      <c r="V42" s="14" t="n"/>
+      <c r="W42" s="14" t="n"/>
+      <c r="X42" s="14" t="n"/>
+      <c r="Y42" s="14" t="n"/>
+      <c r="Z42" s="14" t="n"/>
+      <c r="AA42" s="14" t="n"/>
+      <c r="AB42" s="14" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="14" t="n"/>
+      <c r="B43" s="14" t="n"/>
+      <c r="C43" s="13" t="inlineStr">
+        <is>
+          <t>EAST -&gt; WEST Failover Implementation</t>
+        </is>
+      </c>
+      <c r="D43" s="14" t="n"/>
+      <c r="E43" s="14" t="n"/>
+      <c r="F43" s="17" t="n"/>
+      <c r="G43" s="14" t="n"/>
+      <c r="H43" s="14" t="n"/>
+      <c r="I43" s="14" t="n"/>
+      <c r="J43" s="14" t="n"/>
+      <c r="K43" s="14" t="n"/>
+      <c r="L43" s="64" t="inlineStr"/>
+      <c r="M43" s="64" t="inlineStr"/>
+      <c r="N43" s="64" t="inlineStr"/>
+      <c r="O43" s="64" t="inlineStr"/>
+      <c r="P43" s="64" t="inlineStr"/>
+      <c r="Q43" s="64" t="inlineStr"/>
+      <c r="R43" s="64" t="inlineStr"/>
+      <c r="S43" s="64" t="inlineStr"/>
+      <c r="T43" s="64" t="inlineStr"/>
+      <c r="U43" s="14" t="n"/>
+      <c r="V43" s="14" t="n"/>
+      <c r="W43" s="14" t="n"/>
+      <c r="X43" s="14" t="n"/>
+      <c r="Y43" s="14" t="n"/>
+      <c r="Z43" s="14" t="n"/>
+      <c r="AA43" s="14" t="n"/>
+      <c r="AB43" s="14" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="18" t="n"/>
+      <c r="B44" s="18" t="n"/>
+      <c r="C44" s="19" t="inlineStr">
+        <is>
+          <t>EAST -&gt; WEST Failover Testing</t>
+        </is>
+      </c>
+      <c r="D44" s="18" t="n"/>
+      <c r="E44" s="18" t="n"/>
+      <c r="F44" s="20" t="n"/>
+      <c r="G44" s="18" t="n"/>
+      <c r="H44" s="18" t="n"/>
+      <c r="I44" s="18" t="n"/>
+      <c r="J44" s="18" t="n"/>
+      <c r="K44" s="18" t="n"/>
+      <c r="L44" s="18" t="n"/>
+      <c r="M44" s="18" t="n"/>
+      <c r="N44" s="18" t="n"/>
+      <c r="O44" s="18" t="n"/>
+      <c r="P44" s="18" t="n"/>
+      <c r="Q44" s="18" t="n"/>
+      <c r="R44" s="18" t="n"/>
+      <c r="S44" s="65" t="inlineStr"/>
+      <c r="T44" s="65" t="inlineStr"/>
+      <c r="U44" s="65" t="inlineStr"/>
+      <c r="V44" s="65" t="inlineStr"/>
+      <c r="W44" s="65" t="inlineStr"/>
+      <c r="X44" s="18" t="n"/>
+      <c r="Y44" s="18" t="n"/>
+      <c r="Z44" s="18" t="n"/>
+      <c r="AA44" s="18" t="n"/>
+      <c r="AB44" s="18" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="24" t="n"/>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>FIS Implementation</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>FIS Support</t>
+        </is>
+      </c>
+      <c r="D45" s="66" t="inlineStr"/>
+      <c r="E45" s="66" t="inlineStr"/>
+      <c r="F45" s="67" t="inlineStr"/>
+      <c r="G45" s="66" t="inlineStr"/>
+      <c r="H45" s="66" t="inlineStr"/>
+      <c r="I45" s="66" t="inlineStr"/>
+      <c r="J45" s="66" t="inlineStr"/>
+      <c r="K45" s="66" t="inlineStr"/>
+      <c r="L45" s="66" t="inlineStr"/>
+      <c r="M45" s="66" t="inlineStr"/>
+      <c r="N45" s="66" t="inlineStr"/>
+      <c r="O45" s="66" t="inlineStr"/>
+      <c r="P45" s="66" t="inlineStr"/>
+      <c r="Q45" s="66" t="inlineStr"/>
+      <c r="R45" s="66" t="inlineStr"/>
+      <c r="S45" s="66" t="inlineStr"/>
+      <c r="T45" s="66" t="inlineStr"/>
+      <c r="U45" s="66" t="inlineStr"/>
+      <c r="V45" s="66" t="inlineStr"/>
+      <c r="W45" s="66" t="inlineStr"/>
+      <c r="X45" s="66" t="inlineStr"/>
+      <c r="Y45" s="66" t="inlineStr"/>
+      <c r="Z45" s="66" t="inlineStr"/>
+      <c r="AA45" s="66" t="inlineStr"/>
+      <c r="AB45" s="66" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="68" t="inlineStr">
+        <is>
+          <t>Core Support Services</t>
+        </is>
+      </c>
+      <c r="B46" s="19" t="inlineStr">
+        <is>
+          <t>AI Enablements</t>
+        </is>
+      </c>
+      <c r="C46" s="19" t="inlineStr">
+        <is>
+          <t>Platform AI assistant beta</t>
+        </is>
+      </c>
+      <c r="D46" s="18" t="n"/>
+      <c r="E46" s="18" t="n"/>
+      <c r="F46" s="20" t="n"/>
+      <c r="G46" s="18" t="n"/>
+      <c r="H46" s="18" t="n"/>
+      <c r="I46" s="18" t="n"/>
+      <c r="J46" s="18" t="n"/>
+      <c r="K46" s="69" t="inlineStr"/>
+      <c r="L46" s="69" t="inlineStr"/>
+      <c r="M46" s="69" t="inlineStr"/>
+      <c r="N46" s="69" t="inlineStr"/>
+      <c r="O46" s="69" t="inlineStr"/>
+      <c r="P46" s="69" t="inlineStr"/>
+      <c r="Q46" s="69" t="inlineStr"/>
+      <c r="R46" s="69" t="inlineStr"/>
+      <c r="S46" s="69" t="inlineStr"/>
+      <c r="T46" s="18" t="n"/>
+      <c r="U46" s="18" t="n"/>
+      <c r="V46" s="18" t="n"/>
+      <c r="W46" s="18" t="n"/>
+      <c r="X46" s="18" t="n"/>
+      <c r="Y46" s="18" t="n"/>
+      <c r="Z46" s="18" t="n"/>
+      <c r="AA46" s="18" t="n"/>
+      <c r="AB46" s="18" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="24" t="n"/>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>Landing Page</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>Unified platform portal</t>
+        </is>
+      </c>
+      <c r="D47" s="24" t="n"/>
+      <c r="E47" s="24" t="n"/>
+      <c r="F47" s="70" t="inlineStr"/>
+      <c r="G47" s="71" t="inlineStr"/>
+      <c r="H47" s="71" t="inlineStr"/>
+      <c r="I47" s="71" t="inlineStr"/>
+      <c r="J47" s="71" t="inlineStr"/>
+      <c r="K47" s="24" t="n"/>
+      <c r="L47" s="24" t="n"/>
+      <c r="M47" s="24" t="n"/>
+      <c r="N47" s="24" t="n"/>
+      <c r="O47" s="24" t="n"/>
+      <c r="P47" s="24" t="n"/>
+      <c r="Q47" s="24" t="n"/>
+      <c r="R47" s="24" t="n"/>
+      <c r="S47" s="24" t="n"/>
+      <c r="T47" s="24" t="n"/>
+      <c r="U47" s="24" t="n"/>
+      <c r="V47" s="24" t="n"/>
+      <c r="W47" s="24" t="n"/>
+      <c r="X47" s="24" t="n"/>
+      <c r="Y47" s="24" t="n"/>
+      <c r="Z47" s="24" t="n"/>
+      <c r="AA47" s="24" t="n"/>
+      <c r="AB47" s="24" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>FVEY C2S Core</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>FVEY C2S Core</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>Cross-domain service mesh</t>
+        </is>
+      </c>
+      <c r="D48" s="24" t="n"/>
+      <c r="E48" s="24" t="n"/>
+      <c r="F48" s="25" t="n"/>
+      <c r="G48" s="24" t="n"/>
+      <c r="H48" s="72" t="inlineStr"/>
+      <c r="I48" s="72" t="inlineStr"/>
+      <c r="J48" s="72" t="inlineStr"/>
+      <c r="K48" s="72" t="inlineStr"/>
+      <c r="L48" s="72" t="inlineStr"/>
+      <c r="M48" s="72" t="inlineStr"/>
+      <c r="N48" s="72" t="inlineStr"/>
+      <c r="O48" s="24" t="n"/>
+      <c r="P48" s="24" t="n"/>
+      <c r="Q48" s="24" t="n"/>
+      <c r="R48" s="24" t="n"/>
+      <c r="S48" s="24" t="n"/>
+      <c r="T48" s="24" t="n"/>
+      <c r="U48" s="24" t="n"/>
+      <c r="V48" s="24" t="n"/>
+      <c r="W48" s="24" t="n"/>
+      <c r="X48" s="24" t="n"/>
+      <c r="Y48" s="24" t="n"/>
+      <c r="Z48" s="24" t="n"/>
+      <c r="AA48" s="24" t="n"/>
+      <c r="AB48" s="24" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>FVEY C2S Support</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>FVEY C2S Support</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>FVEY compliance automation</t>
+        </is>
+      </c>
+      <c r="D49" s="24" t="n"/>
+      <c r="E49" s="24" t="n"/>
+      <c r="F49" s="25" t="n"/>
+      <c r="G49" s="24" t="n"/>
+      <c r="H49" s="24" t="n"/>
+      <c r="I49" s="73" t="inlineStr"/>
+      <c r="J49" s="73" t="inlineStr"/>
+      <c r="K49" s="73" t="inlineStr"/>
+      <c r="L49" s="73" t="inlineStr"/>
+      <c r="M49" s="73" t="inlineStr"/>
+      <c r="N49" s="73" t="inlineStr"/>
+      <c r="O49" s="73" t="inlineStr"/>
+      <c r="P49" s="73" t="inlineStr"/>
+      <c r="Q49" s="24" t="n"/>
+      <c r="R49" s="24" t="n"/>
+      <c r="S49" s="24" t="n"/>
+      <c r="T49" s="24" t="n"/>
+      <c r="U49" s="24" t="n"/>
+      <c r="V49" s="24" t="n"/>
+      <c r="W49" s="24" t="n"/>
+      <c r="X49" s="24" t="n"/>
+      <c r="Y49" s="24" t="n"/>
+      <c r="Z49" s="24" t="n"/>
+      <c r="AA49" s="24" t="n"/>
+      <c r="AB49" s="24" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>DEV C2S Core</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>DEV C2S Core</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>DEV enclave platform baseline</t>
+        </is>
+      </c>
+      <c r="D50" s="74" t="inlineStr"/>
+      <c r="E50" s="74" t="inlineStr"/>
+      <c r="F50" s="75" t="inlineStr"/>
+      <c r="G50" s="74" t="inlineStr"/>
+      <c r="H50" s="74" t="inlineStr"/>
+      <c r="I50" s="74" t="inlineStr"/>
+      <c r="J50" s="74" t="inlineStr"/>
+      <c r="K50" s="24" t="n"/>
+      <c r="L50" s="24" t="n"/>
+      <c r="M50" s="24" t="n"/>
+      <c r="N50" s="24" t="n"/>
+      <c r="O50" s="24" t="n"/>
+      <c r="P50" s="24" t="n"/>
+      <c r="Q50" s="24" t="n"/>
+      <c r="R50" s="24" t="n"/>
+      <c r="S50" s="24" t="n"/>
+      <c r="T50" s="24" t="n"/>
+      <c r="U50" s="24" t="n"/>
+      <c r="V50" s="24" t="n"/>
+      <c r="W50" s="24" t="n"/>
+      <c r="X50" s="24" t="n"/>
+      <c r="Y50" s="24" t="n"/>
+      <c r="Z50" s="24" t="n"/>
+      <c r="AA50" s="24" t="n"/>
+      <c r="AB50" s="24" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
+          <t>DEV C2S Support</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>DEV C2S Support</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>DEV enclave operational tooling</t>
+        </is>
+      </c>
+      <c r="D51" s="24" t="n"/>
+      <c r="E51" s="24" t="n"/>
+      <c r="F51" s="25" t="n"/>
+      <c r="G51" s="76" t="inlineStr"/>
+      <c r="H51" s="76" t="inlineStr"/>
+      <c r="I51" s="76" t="inlineStr"/>
+      <c r="J51" s="76" t="inlineStr"/>
+      <c r="K51" s="76" t="inlineStr"/>
+      <c r="L51" s="76" t="inlineStr"/>
+      <c r="M51" s="76" t="inlineStr"/>
+      <c r="N51" s="24" t="n"/>
+      <c r="O51" s="24" t="n"/>
+      <c r="P51" s="24" t="n"/>
+      <c r="Q51" s="24" t="n"/>
+      <c r="R51" s="24" t="n"/>
+      <c r="S51" s="24" t="n"/>
+      <c r="T51" s="24" t="n"/>
+      <c r="U51" s="24" t="n"/>
+      <c r="V51" s="24" t="n"/>
+      <c r="W51" s="24" t="n"/>
+      <c r="X51" s="24" t="n"/>
+      <c r="Y51" s="24" t="n"/>
+      <c r="Z51" s="24" t="n"/>
+      <c r="AA51" s="24" t="n"/>
+      <c r="AB51" s="24" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>Legend:</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="65" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="77" t="inlineStr">
         <is>
           <t>Baseline (primary offering)</t>
         </is>
       </c>
-      <c r="B44" s="66" t="inlineStr">
+      <c r="B55" s="78" t="inlineStr">
         <is>
           <t>Green left accent</t>
         </is>
       </c>
-      <c r="C44" s="67" t="inlineStr">
+      <c r="C55" s="79" t="inlineStr">
         <is>
           <t>Optional</t>
         </is>
       </c>
-      <c r="D44" s="66" t="inlineStr">
+      <c r="D55" s="78" t="inlineStr">
         <is>
           <t>Orange dashed left accent</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A4:A24"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="18">
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A13:A38"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B9:B12"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A5:A12"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A39:A45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2440,7 +2865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2458,37 +2883,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="inlineStr">
+      <c r="A1" s="80" t="inlineStr">
         <is>
           <t>domain</t>
         </is>
       </c>
-      <c r="B1" s="68" t="inlineStr">
+      <c r="B1" s="80" t="inlineStr">
         <is>
           <t>feature</t>
         </is>
       </c>
-      <c r="C1" s="68" t="inlineStr">
+      <c r="C1" s="80" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="D1" s="68" t="inlineStr">
+      <c r="D1" s="80" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="E1" s="68" t="inlineStr">
+      <c r="E1" s="80" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="F1" s="68" t="inlineStr">
+      <c r="F1" s="80" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="G1" s="68" t="inlineStr">
+      <c r="G1" s="80" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
@@ -2497,17 +2922,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>O&amp;M Existing Tenant Apps</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CICD</t>
+          <t>O&amp;M Existing Tenant Apps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GitLab Support</t>
+          <t>Existing Tenant O&amp;M Support</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2522,45 +2947,41 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Standardized pipelines across tenants, hardenening scripts, devops tools like certbot</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>baseline</t>
-        </is>
+          <t>Reducing incident rate for Tier 1 tenants</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>Onboarding Tenant Apps</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CICD</t>
+          <t>HSM DEV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bitbucket -&gt; GitLab Migration</t>
+          <t>HSM DEV (RMF 0-3)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sep 2026</t>
+          <t>Jan 2026</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>May 2027</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>There might not be much of a reason to migrate from bitbucket other than consistency but it needs to be understood how we can keep the tf state the same if we execute migration</t>
-        </is>
+          <t>Mar 2026</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -2569,33 +2990,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>Onboarding Tenant Apps</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Image Repository</t>
+          <t>HSM DEV</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Private hardened registry</t>
+          <t>HSM DEV Account Setup</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Apr 2026</t>
+          <t>Mar 2026</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aug 2026</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>FIPS compliant artifact storage</t>
-        </is>
+          <t>May 2026</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -2604,223 +3023,199 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>Onboarding Tenant Apps</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kubernetes (EKS)</t>
+          <t>HSM DEV</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EKS v1 support</t>
+          <t>HSM DEV Account Integration</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>May 2026</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Initial EKS support through R2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>baseline</t>
-        </is>
+          <t>Sep 2026</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>Onboarding Tenant Apps</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kubernetes (EKS)</t>
+          <t>HSM DEV</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AL2023 AMI hardening and STIG</t>
+          <t>HSM Multi-Tenant Resource Cleanup</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jan 2026</t>
+          <t>Aug 2026</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>AMI hardening and STIG compliance</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>baseline</t>
-        </is>
+          <t>Sep 2026</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>Onboarding Tenant Apps</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kubernetes (EKS)</t>
+          <t>Tenant X PROD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EKS v2 config</t>
+          <t>Tenant X PROD (RMF 0-3)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feb 2026</t>
+          <t>Jan 2026</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Apr 2026</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EKS v2 configuration and rollout</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>baseline</t>
-        </is>
+          <t>Mar 2026</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>Onboarding Tenant Apps</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kubernetes (EKS)</t>
+          <t>Tenant X PROD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Multi-cluster federation</t>
+          <t>Tenant X PROD Account Setup</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feb 2026</t>
+          <t>Mar 2026</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jul 2026</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Enables regional failover</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>baseline</t>
-        </is>
+          <t>May 2026</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>Onboarding Tenant Apps</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kubernetes (Rancher)</t>
+          <t>Tenant X PROD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rancher RKE1 support</t>
+          <t>Tenant X PROD Account Integration</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>May 2026</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Initial EKS support through R2</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>optional</t>
-        </is>
+          <t>Jul 2026</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Core Services</t>
+          <t>Onboarding Tenant Apps</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kubernetes (Rancher)</t>
+          <t>Tenant X PROD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rancher RKE2 development</t>
+          <t>Tenant X PROD ATO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Initial EKS support through R2</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>optional</t>
-        </is>
+          <t>Jul 2026</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -2836,12 +3231,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rancher RKE2 Tenant Migration</t>
+          <t>Rancher RKE1 support</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Apr 2026</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2873,17 +3268,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rancher RKE2 Tenant Support</t>
+          <t>Rancher RKE2 development</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Apr 2026</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dec 2027</t>
+          <t>Mar 2026</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2905,17 +3300,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>Kubernetes (Rancher)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Keycloak OAUTH2 Support</t>
+          <t>Rancher RKE2 Tenant Migration</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>Apr 2026</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2925,12 +3320,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>External IdP federation</t>
+          <t>Initial EKS support through R2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>optional</t>
         </is>
       </c>
     </row>
@@ -2942,27 +3337,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>Kubernetes (Rancher)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>F5 Support</t>
+          <t>Rancher RKE2 Tenant Support</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>Apr 2026</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Dec 2027</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Removes dependency of IDAMS LDAP Password and resource configuration and O&amp;M</t>
+          <t>Initial EKS support through R2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2979,17 +3374,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>Kubernetes (EKS)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>F5/DEX/OAUTH2 Developmment</t>
+          <t>EKS v1 support</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jan 2026</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2999,7 +3394,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Effectively replaces Keycloak so that we can move forward with less external dependencies and a lighter weight baseline to reduce O&amp;M</t>
+          <t>Initial EKS support through R2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3016,27 +3411,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>Kubernetes (EKS)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>F5/DEX/OAUTH2 Support</t>
+          <t>AL2023 AMI hardening and STIG</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Jan 2026</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dec 2027</t>
+          <t>Mar 2026</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Effectively replaces Keycloak so that we can move forward with less external dependencies and a lighter weight baseline to reduce O&amp;M</t>
+          <t>AMI hardening and STIG compliance</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3053,27 +3448,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OAuth</t>
+          <t>Kubernetes (EKS)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>F5/DEX/OAUTH2 Support</t>
+          <t>EKS v2 config</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Feb 2026</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dec 2027</t>
+          <t>Apr 2026</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Effectively replaces Keycloak so that we can move forward with less external dependencies and a lighter weight baseline to reduce O&amp;M</t>
+          <t>EKS v2 configuration and rollout</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3090,27 +3485,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Observability</t>
+          <t>Kubernetes (EKS)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Elastic Support</t>
+          <t>Multi-cluster federation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>Feb 2026</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Jul 2026</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Standard observability stack</t>
+          <t>Enables regional failover</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3127,33 +3522,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Observability</t>
+          <t>Kubernetes (EKS Auto)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Prometheus/Grafana Support</t>
+          <t>EKS Auto Discovery</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>Feb 2026</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Apr 2026</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Standard observability stack</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>optional</t>
-        </is>
+          <t>Read up on EKS auto, meet w AWS for questions, deliver findings to client</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -3164,33 +3557,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Observability</t>
+          <t>Kubernetes (EKS Auto)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Prometheus/Grafana Add-ons</t>
+          <t>EKS Auto Platform Implementation</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>Apr 2026</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Jun 2026</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Standard observability stack</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>optional</t>
-        </is>
+          <t>Test EKS Auto, will have to have complete for Tenant X by 07-01</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -3211,14 +3602,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Dec 2025</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>May 2026</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Dec 2027</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Standard observability stack</t>
@@ -3226,7 +3617,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>optional</t>
+          <t>baseline</t>
         </is>
       </c>
     </row>
@@ -3248,14 +3639,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Dec 2025</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>May 2026</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Dec 2027</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Standard observability stack</t>
@@ -3263,129 +3654,135 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>optional</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Core Support Services</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AI Enablements</t>
+          <t>Observability</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Platform AI assistant beta</t>
+          <t>Prometheus/Grafana Add-ons</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jul 2026</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mar 2027</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Operator productivity tooling</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v/>
+          <t>Standard observability stack</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Core Support Services</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Landing Page</t>
+          <t>Observability</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Unified platform portal</t>
+          <t>Elastic Support</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feb 2026</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jun 2026</t>
+          <t>Dec 2027</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Single entry point for tenants</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v/>
+          <t>Standard observability stack</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Core Support Services</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Resiliency</t>
+          <t>Observability</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Multi-region DR automation</t>
+          <t>Prometheus/Grafana Support</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 2026</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dec 2026</t>
+          <t>Dec 2027</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Automated failover testing</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v/>
+          <t>Standard observability stack</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DEV C2S Core</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DEV C2S Core</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DEV enclave platform baseline</t>
+          <t>Keycloak OAUTH2 Support</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3395,102 +3792,108 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Jun 2026</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Initial DEV enclave rollout</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v/>
+          <t>External IdP federation</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DEV C2S Support</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DEV C2S Support</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DEV enclave operational tooling</t>
+          <t>F5 Support</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sep 2026</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Logging monitoring and support tooling</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v/>
+          <t>Removes dependency of IDAMS LDAP Password and resource configuration and O&amp;M</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FVEY C2S Core</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FVEY C2S Core</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cross-domain service mesh</t>
+          <t>F5/DEX/OAUTH2 Developmment</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Apr 2026</t>
+          <t>Jan 2026</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct 2026</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Secure multi-domain networking</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v/>
+          <t>Effectively replaces Keycloak so that we can move forward with less external dependencies and a lighter weight baseline to reduce O&amp;M</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FVEY C2S Support</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FVEY C2S Support</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FVEY compliance automation</t>
+          <t>F5/DEX/OAUTH2 Support</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3500,37 +3903,39 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Dec 2026</t>
+          <t>Dec 2027</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Continuous compliance enforcement</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v/>
+          <t>Effectively replaces Keycloak so that we can move forward with less external dependencies and a lighter weight baseline to reduce O&amp;M</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>O&amp;M Existing Tenant Apps</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>O&amp;M Existing Tenant Apps</t>
+          <t>OAuth</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Existing Tenant O&amp;M Support</t>
+          <t>F5/DEX/OAUTH2 Support</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3540,74 +3945,82 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Reducing incident rate for Tier 1 tenants</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v/>
+          <t>Effectively replaces Keycloak so that we can move forward with less external dependencies and a lighter weight baseline to reduce O&amp;M</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Onboarding Tenant Apps</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HSM DEV</t>
+          <t>CICD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HSM DEV (RMF 0-3)</t>
+          <t>GitLab Support</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jan 2026</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v/>
-      </c>
-      <c r="G31" t="n">
-        <v/>
+          <t>Dec 2027</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Standardized pipelines across tenants, hardenening scripts, devops tools like certbot</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Onboarding Tenant Apps</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HSM DEV</t>
+          <t>CICD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HSM DEV Account Setup</t>
+          <t>Bitbucket -&gt; GitLab Migration</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
+          <t>Sep 2026</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>May 2026</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v/>
+          <t>May 2027</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>There might not be much of a reason to migrate from bitbucket other than consistency but it needs to be understood how we can keep the tf state the same if we execute migration</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -3616,31 +4029,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Onboarding Tenant Apps</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HSM DEV</t>
+          <t>Image Repository</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HSM DEV Account Integration</t>
+          <t>Harbor Implementation (CY failover)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sep 2026</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v/>
+          <t>Mar 2026</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CY failover solution to maintain platform conainer images</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -3649,31 +4064,33 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Onboarding Tenant Apps</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HSM DEV</t>
+          <t>Image Repository</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HSM Multi-Tenant Resource Cleanup</t>
+          <t>Internal PROD ECR Implementation</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aug 2026</t>
+          <t>Jan 2026</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sep 2026</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v/>
+          <t>Mar 2026</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Test AMI pipeline images to ECR</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -3682,31 +4099,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Onboarding Tenant Apps</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tenant X PROD</t>
+          <t>Image Repository</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tenant X PROD (RMF 0-3)</t>
+          <t>Internal PROD ECR Migration</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jan 2026</t>
+          <t>Mar 2026</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v/>
+          <t>May 2026</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Migrate all platform images to ECR</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -3715,64 +4134,70 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Onboarding Tenant Apps</t>
+          <t>Core Services</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tenant X PROD</t>
+          <t>Image Repository</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tenant X PROD Account Setup</t>
+          <t>ECR Baseline</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mar 2026</t>
+          <t>May 2026</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>May 2026</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v/>
-      </c>
-      <c r="G36" t="n">
-        <v/>
+          <t>Dec 2027</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>This eliminates the dependency of CY and will deprecate the need of Harbor such to improve platform efficiencies by utilizing cloud native solutions and reduce resources</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>baseline</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Onboarding Tenant Apps</t>
+          <t>Resiliency</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tenant X PROD</t>
+          <t>WEST Standalone Account</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tenant X PROD Account Integration</t>
+          <t>WEST Asset RMF (0-3)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>May 2026</t>
+          <t>Feb 2026</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jul 2026</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v/>
+          <t>Apr 2026</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Create WEST asset and get account IATT</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -3781,33 +4206,412 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Onboarding Tenant Apps</t>
+          <t>Resiliency</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tenant X PROD</t>
+          <t>WEST Standalone Account</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tenant X PROD ATO</t>
+          <t>WEST Standalone Asset Discovery</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Apr 2026</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Oct 2026</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Discover phase of west standalone</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Resiliency</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>WEST Standalone Account</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>WEST Standalone Account Build</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Jun 2026</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Oct 2026</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Wrap up standalone west potential</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Resiliency</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>EAST -&gt; West Failover</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>EAST -&gt; WEST Failover Discovery</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Jun 2026</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Aug 2026</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v/>
+      </c>
+      <c r="G40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Resiliency</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EAST -&gt; West Failover</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>EAST -&gt; WEST Failover Implementation</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Aug 2026</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Apr 2027</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v/>
+      </c>
+      <c r="G41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Resiliency</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EAST -&gt; West Failover</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EAST -&gt; WEST Failover Testing</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mar 2027</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Jul 2027</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v/>
+      </c>
+      <c r="G42" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Resiliency</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FIS Implementation</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FIS Support</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Dec 2025</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Dec 2027</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v/>
+      </c>
+      <c r="G43" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Core Support Services</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AI Enablements</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Platform AI assistant beta</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Jul 2026</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Mar 2027</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Operator productivity tooling</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Core Support Services</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Landing Page</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Unified platform portal</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Feb 2026</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Jun 2026</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Single entry point for tenants</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FVEY C2S Core</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FVEY C2S Core</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Cross-domain service mesh</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Apr 2026</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Oct 2026</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Secure multi-domain networking</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FVEY C2S Support</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FVEY C2S Support</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FVEY compliance automation</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>May 2026</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Jul 2026</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Dec 2026</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Continuous compliance enforcement</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
         <v/>
       </c>
-      <c r="G38" t="n">
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DEV C2S Core</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DEV C2S Core</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DEV enclave platform baseline</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Dec 2025</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Jun 2026</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Initial DEV enclave rollout</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DEV C2S Support</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DEV C2S Support</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DEV enclave operational tooling</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mar 2026</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sep 2026</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Logging monitoring and support tooling</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v/>
       </c>
     </row>
@@ -3836,17 +4640,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="inlineStr">
+      <c r="A1" s="80" t="inlineStr">
         <is>
           <t>release</t>
         </is>
       </c>
-      <c r="B1" s="68" t="inlineStr">
+      <c r="B1" s="80" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="C1" s="68" t="inlineStr">
+      <c r="C1" s="80" t="inlineStr">
         <is>
           <t>end</t>
         </is>
